--- a/output/history.xlsx
+++ b/output/history.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E628"/>
+  <dimension ref="A1:E633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1763,15 +1763,15 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1003</t>
+          <t>Filling 6 Line F6L1002</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>43378</v>
+        <v>43601</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -1788,11 +1788,11 @@
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>43381</v>
+        <v>43378</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -1809,11 +1809,11 @@
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>43385</v>
+        <v>43381</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -1830,11 +1830,11 @@
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>43388</v>
+        <v>43385</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -1851,11 +1851,11 @@
         </is>
       </c>
       <c r="C71" s="2" t="n">
-        <v>43391</v>
+        <v>43388</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -1872,11 +1872,11 @@
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>43392</v>
+        <v>43391</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -1914,11 +1914,11 @@
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>43395</v>
+        <v>43392</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="C79" s="2" t="n">
-        <v>43397</v>
+        <v>43395</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="C80" s="2" t="n">
-        <v>43398</v>
+        <v>43397</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2082,11 +2082,11 @@
         </is>
       </c>
       <c r="C82" s="2" t="n">
-        <v>43404</v>
+        <v>43398</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="C84" s="2" t="n">
-        <v>43405</v>
+        <v>43404</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="C85" s="2" t="n">
-        <v>43406</v>
+        <v>43405</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2166,11 +2166,11 @@
         </is>
       </c>
       <c r="C86" s="2" t="n">
-        <v>43409</v>
+        <v>43406</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -2208,11 +2208,11 @@
         </is>
       </c>
       <c r="C88" s="2" t="n">
-        <v>43412</v>
+        <v>43409</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -2229,11 +2229,11 @@
         </is>
       </c>
       <c r="C89" s="2" t="n">
-        <v>43423</v>
+        <v>43412</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -2250,11 +2250,11 @@
         </is>
       </c>
       <c r="C90" s="2" t="n">
-        <v>43472</v>
+        <v>43423</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -2271,11 +2271,11 @@
         </is>
       </c>
       <c r="C91" s="2" t="n">
-        <v>43473</v>
+        <v>43472</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Kurang lubrikasi</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -2313,11 +2313,11 @@
         </is>
       </c>
       <c r="C93" s="2" t="n">
-        <v>43474</v>
+        <v>43473</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -2334,11 +2334,11 @@
         </is>
       </c>
       <c r="C94" s="2" t="n">
-        <v>43481</v>
+        <v>43474</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="C95" s="2" t="n">
-        <v>43489</v>
+        <v>43481</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2376,11 +2376,11 @@
         </is>
       </c>
       <c r="C96" s="2" t="n">
-        <v>43495</v>
+        <v>43489</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -2397,11 +2397,11 @@
         </is>
       </c>
       <c r="C97" s="2" t="n">
-        <v>43497</v>
+        <v>43495</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -2418,11 +2418,11 @@
         </is>
       </c>
       <c r="C98" s="2" t="n">
-        <v>43504</v>
+        <v>43497</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -2460,11 +2460,11 @@
         </is>
       </c>
       <c r="C100" s="2" t="n">
-        <v>43508</v>
+        <v>43504</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -2502,11 +2502,11 @@
         </is>
       </c>
       <c r="C102" s="2" t="n">
-        <v>43516</v>
+        <v>43508</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -2523,11 +2523,11 @@
         </is>
       </c>
       <c r="C103" s="2" t="n">
-        <v>43530</v>
+        <v>43516</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="C105" s="2" t="n">
-        <v>43532</v>
+        <v>43530</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="C106" s="2" t="n">
-        <v>43544</v>
+        <v>43532</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
         </is>
       </c>
       <c r="C107" s="2" t="n">
-        <v>43549</v>
+        <v>43544</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -2628,11 +2628,11 @@
         </is>
       </c>
       <c r="C108" s="2" t="n">
-        <v>43552</v>
+        <v>43549</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -2649,11 +2649,11 @@
         </is>
       </c>
       <c r="C109" s="2" t="n">
-        <v>43560</v>
+        <v>43552</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Part hilang</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -2670,11 +2670,11 @@
         </is>
       </c>
       <c r="C110" s="2" t="n">
-        <v>43566</v>
+        <v>43560</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part hilang</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="C111" s="2" t="n">
-        <v>43568</v>
+        <v>43566</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2712,11 +2712,11 @@
         </is>
       </c>
       <c r="C112" s="2" t="n">
-        <v>43577</v>
+        <v>43568</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="C113" s="2" t="n">
-        <v>43578</v>
+        <v>43577</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2754,11 +2754,11 @@
         </is>
       </c>
       <c r="C114" s="2" t="n">
-        <v>43584</v>
+        <v>43578</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -2775,11 +2775,11 @@
         </is>
       </c>
       <c r="C115" s="2" t="n">
-        <v>43600</v>
+        <v>43584</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -2792,15 +2792,15 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1004</t>
+          <t>Filling 6 Line F6L1003</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
-        <v>43374</v>
+        <v>43600</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -2813,15 +2813,15 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1004</t>
+          <t>Filling 6 Line F6L1003</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
-        <v>43378</v>
+        <v>43601</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -2838,7 +2838,7 @@
         </is>
       </c>
       <c r="C118" s="2" t="n">
-        <v>43378</v>
+        <v>43374</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="C119" s="2" t="n">
-        <v>43389</v>
+        <v>43378</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2880,11 +2880,11 @@
         </is>
       </c>
       <c r="C120" s="2" t="n">
-        <v>43390</v>
+        <v>43378</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -2901,11 +2901,11 @@
         </is>
       </c>
       <c r="C121" s="2" t="n">
-        <v>43390</v>
+        <v>43389</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="C122" s="2" t="n">
-        <v>43391</v>
+        <v>43390</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2943,11 +2943,11 @@
         </is>
       </c>
       <c r="C123" s="2" t="n">
-        <v>43398</v>
+        <v>43390</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -2964,11 +2964,11 @@
         </is>
       </c>
       <c r="C124" s="2" t="n">
-        <v>43398</v>
+        <v>43391</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -2985,11 +2985,11 @@
         </is>
       </c>
       <c r="C125" s="2" t="n">
-        <v>43402</v>
+        <v>43398</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -3006,7 +3006,7 @@
         </is>
       </c>
       <c r="C126" s="2" t="n">
-        <v>43406</v>
+        <v>43398</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3027,11 +3027,11 @@
         </is>
       </c>
       <c r="C127" s="2" t="n">
-        <v>43409</v>
+        <v>43402</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -3048,11 +3048,11 @@
         </is>
       </c>
       <c r="C128" s="2" t="n">
-        <v>43410</v>
+        <v>43406</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -3069,11 +3069,11 @@
         </is>
       </c>
       <c r="C129" s="2" t="n">
-        <v>43411</v>
+        <v>43409</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -3090,11 +3090,11 @@
         </is>
       </c>
       <c r="C130" s="2" t="n">
-        <v>43412</v>
+        <v>43410</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -3111,11 +3111,11 @@
         </is>
       </c>
       <c r="C131" s="2" t="n">
-        <v>43413</v>
+        <v>43411</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="C132" s="2" t="n">
-        <v>43413</v>
+        <v>43412</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3153,11 +3153,11 @@
         </is>
       </c>
       <c r="C133" s="2" t="n">
-        <v>43425</v>
+        <v>43413</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -3174,11 +3174,11 @@
         </is>
       </c>
       <c r="C134" s="2" t="n">
-        <v>43427</v>
+        <v>43413</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -3195,11 +3195,11 @@
         </is>
       </c>
       <c r="C135" s="2" t="n">
-        <v>43432</v>
+        <v>43425</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -3216,11 +3216,11 @@
         </is>
       </c>
       <c r="C136" s="2" t="n">
-        <v>43433</v>
+        <v>43427</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -3237,11 +3237,11 @@
         </is>
       </c>
       <c r="C137" s="2" t="n">
-        <v>43453</v>
+        <v>43432</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -3258,7 +3258,7 @@
         </is>
       </c>
       <c r="C138" s="2" t="n">
-        <v>43469</v>
+        <v>43433</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3279,11 +3279,11 @@
         </is>
       </c>
       <c r="C139" s="2" t="n">
-        <v>43472</v>
+        <v>43453</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -3300,11 +3300,11 @@
         </is>
       </c>
       <c r="C140" s="2" t="n">
-        <v>43474</v>
+        <v>43469</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="C141" s="2" t="n">
-        <v>43475</v>
+        <v>43472</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3342,11 +3342,11 @@
         </is>
       </c>
       <c r="C142" s="2" t="n">
-        <v>43480</v>
+        <v>43474</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Kurang lubrikasi</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -3363,11 +3363,11 @@
         </is>
       </c>
       <c r="C143" s="2" t="n">
-        <v>43481</v>
+        <v>43475</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -3384,11 +3384,11 @@
         </is>
       </c>
       <c r="C144" s="2" t="n">
-        <v>43481</v>
+        <v>43480</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -3405,11 +3405,11 @@
         </is>
       </c>
       <c r="C145" s="2" t="n">
-        <v>43508</v>
+        <v>43481</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -3426,11 +3426,11 @@
         </is>
       </c>
       <c r="C146" s="2" t="n">
-        <v>43510</v>
+        <v>43481</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -3447,11 +3447,11 @@
         </is>
       </c>
       <c r="C147" s="2" t="n">
-        <v>43511</v>
+        <v>43508</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -3468,11 +3468,11 @@
         </is>
       </c>
       <c r="C148" s="2" t="n">
-        <v>43514</v>
+        <v>43510</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -3489,11 +3489,11 @@
         </is>
       </c>
       <c r="C149" s="2" t="n">
-        <v>43521</v>
+        <v>43511</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -3510,11 +3510,11 @@
         </is>
       </c>
       <c r="C150" s="2" t="n">
-        <v>43524</v>
+        <v>43514</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -3531,11 +3531,11 @@
         </is>
       </c>
       <c r="C151" s="2" t="n">
-        <v>43524</v>
+        <v>43521</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="C152" s="2" t="n">
-        <v>43528</v>
+        <v>43524</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3573,11 +3573,11 @@
         </is>
       </c>
       <c r="C153" s="2" t="n">
-        <v>43528</v>
+        <v>43524</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -3594,11 +3594,11 @@
         </is>
       </c>
       <c r="C154" s="2" t="n">
-        <v>43529</v>
+        <v>43528</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -3615,11 +3615,11 @@
         </is>
       </c>
       <c r="C155" s="2" t="n">
-        <v>43566</v>
+        <v>43528</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -3636,7 +3636,7 @@
         </is>
       </c>
       <c r="C156" s="2" t="n">
-        <v>43595</v>
+        <v>43529</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3653,11 +3653,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1005</t>
+          <t>Filling 6 Line F6L1004</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
-        <v>43388</v>
+        <v>43566</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3674,11 +3674,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1005</t>
+          <t>Filling 6 Line F6L1004</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
-        <v>43389</v>
+        <v>43595</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="C159" s="2" t="n">
-        <v>43399</v>
+        <v>43388</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="C160" s="2" t="n">
-        <v>43402</v>
+        <v>43389</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3741,11 +3741,11 @@
         </is>
       </c>
       <c r="C161" s="2" t="n">
-        <v>43402</v>
+        <v>43399</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -3762,11 +3762,11 @@
         </is>
       </c>
       <c r="C162" s="2" t="n">
-        <v>43406</v>
+        <v>43402</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -3783,11 +3783,11 @@
         </is>
       </c>
       <c r="C163" s="2" t="n">
-        <v>43410</v>
+        <v>43402</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="C164" s="2" t="n">
-        <v>43417</v>
+        <v>43406</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3825,11 +3825,11 @@
         </is>
       </c>
       <c r="C165" s="2" t="n">
-        <v>43418</v>
+        <v>43410</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -3846,11 +3846,11 @@
         </is>
       </c>
       <c r="C166" s="2" t="n">
-        <v>43423</v>
+        <v>43417</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -3867,11 +3867,11 @@
         </is>
       </c>
       <c r="C167" s="2" t="n">
-        <v>43430</v>
+        <v>43418</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -3888,7 +3888,7 @@
         </is>
       </c>
       <c r="C168" s="2" t="n">
-        <v>43432</v>
+        <v>43423</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3909,11 +3909,11 @@
         </is>
       </c>
       <c r="C169" s="2" t="n">
-        <v>43433</v>
+        <v>43430</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -3930,11 +3930,11 @@
         </is>
       </c>
       <c r="C170" s="2" t="n">
-        <v>43452</v>
+        <v>43432</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="C171" s="2" t="n">
-        <v>43453</v>
+        <v>43433</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3972,11 +3972,11 @@
         </is>
       </c>
       <c r="C172" s="2" t="n">
-        <v>43454</v>
+        <v>43452</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="C173" s="2" t="n">
-        <v>43475</v>
+        <v>43453</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="C174" s="2" t="n">
-        <v>43479</v>
+        <v>43454</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         </is>
       </c>
       <c r="C175" s="2" t="n">
-        <v>43482</v>
+        <v>43475</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -4056,11 +4056,11 @@
         </is>
       </c>
       <c r="C176" s="2" t="n">
-        <v>43483</v>
+        <v>43479</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -4077,11 +4077,11 @@
         </is>
       </c>
       <c r="C177" s="2" t="n">
-        <v>43487</v>
+        <v>43482</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -4098,11 +4098,11 @@
         </is>
       </c>
       <c r="C178" s="2" t="n">
-        <v>43490</v>
+        <v>43483</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -4119,11 +4119,11 @@
         </is>
       </c>
       <c r="C179" s="2" t="n">
-        <v>43493</v>
+        <v>43487</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Kurang lubrikasi</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -4140,11 +4140,11 @@
         </is>
       </c>
       <c r="C180" s="2" t="n">
-        <v>43493</v>
+        <v>43490</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -4161,11 +4161,11 @@
         </is>
       </c>
       <c r="C181" s="2" t="n">
-        <v>43497</v>
+        <v>43493</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -4182,11 +4182,11 @@
         </is>
       </c>
       <c r="C182" s="2" t="n">
-        <v>43497</v>
+        <v>43493</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="C183" s="2" t="n">
-        <v>43500</v>
+        <v>43497</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         </is>
       </c>
       <c r="C184" s="2" t="n">
-        <v>43503</v>
+        <v>43497</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -4245,11 +4245,11 @@
         </is>
       </c>
       <c r="C185" s="2" t="n">
-        <v>43508</v>
+        <v>43500</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -4266,11 +4266,11 @@
         </is>
       </c>
       <c r="C186" s="2" t="n">
-        <v>43543</v>
+        <v>43503</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -4287,11 +4287,11 @@
         </is>
       </c>
       <c r="C187" s="2" t="n">
-        <v>43544</v>
+        <v>43508</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -4308,11 +4308,11 @@
         </is>
       </c>
       <c r="C188" s="2" t="n">
-        <v>43557</v>
+        <v>43543</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -4329,7 +4329,7 @@
         </is>
       </c>
       <c r="C189" s="2" t="n">
-        <v>43559</v>
+        <v>43544</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -4350,11 +4350,11 @@
         </is>
       </c>
       <c r="C190" s="2" t="n">
-        <v>43560</v>
+        <v>43557</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="C191" s="2" t="n">
-        <v>43563</v>
+        <v>43559</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -4392,11 +4392,11 @@
         </is>
       </c>
       <c r="C192" s="2" t="n">
-        <v>43566</v>
+        <v>43560</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -4413,11 +4413,11 @@
         </is>
       </c>
       <c r="C193" s="2" t="n">
-        <v>43567</v>
+        <v>43563</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -4434,7 +4434,7 @@
         </is>
       </c>
       <c r="C194" s="2" t="n">
-        <v>43570</v>
+        <v>43566</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -4455,11 +4455,11 @@
         </is>
       </c>
       <c r="C195" s="2" t="n">
-        <v>43571</v>
+        <v>43567</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -4476,11 +4476,11 @@
         </is>
       </c>
       <c r="C196" s="2" t="n">
-        <v>43577</v>
+        <v>43570</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -4493,15 +4493,15 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1006</t>
+          <t>Filling 6 Line F6L1005</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
-        <v>43395</v>
+        <v>43571</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -4514,11 +4514,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1006</t>
+          <t>Filling 6 Line F6L1005</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
-        <v>43417</v>
+        <v>43577</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="C199" s="2" t="n">
-        <v>43431</v>
+        <v>43395</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="C200" s="2" t="n">
-        <v>43432</v>
+        <v>43417</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4581,11 +4581,11 @@
         </is>
       </c>
       <c r="C201" s="2" t="n">
-        <v>43472</v>
+        <v>43431</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Part hilang</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="C202" s="2" t="n">
-        <v>43472</v>
+        <v>43432</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
         </is>
       </c>
       <c r="C203" s="2" t="n">
-        <v>43481</v>
+        <v>43472</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part hilang</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -4644,7 +4644,7 @@
         </is>
       </c>
       <c r="C204" s="2" t="n">
-        <v>43481</v>
+        <v>43472</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4665,11 +4665,11 @@
         </is>
       </c>
       <c r="C205" s="2" t="n">
-        <v>43482</v>
+        <v>43481</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -4686,7 +4686,7 @@
         </is>
       </c>
       <c r="C206" s="2" t="n">
-        <v>43514</v>
+        <v>43481</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4707,11 +4707,11 @@
         </is>
       </c>
       <c r="C207" s="2" t="n">
-        <v>43521</v>
+        <v>43482</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -4728,7 +4728,7 @@
         </is>
       </c>
       <c r="C208" s="2" t="n">
-        <v>43530</v>
+        <v>43514</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4749,11 +4749,11 @@
         </is>
       </c>
       <c r="C209" s="2" t="n">
-        <v>43552</v>
+        <v>43521</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -4770,7 +4770,7 @@
         </is>
       </c>
       <c r="C210" s="2" t="n">
-        <v>43552</v>
+        <v>43530</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         </is>
       </c>
       <c r="C211" s="2" t="n">
-        <v>43558</v>
+        <v>43552</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="C212" s="2" t="n">
-        <v>43580</v>
+        <v>43552</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         </is>
       </c>
       <c r="C213" s="2" t="n">
-        <v>43584</v>
+        <v>43558</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         </is>
       </c>
       <c r="C214" s="2" t="n">
-        <v>43588</v>
+        <v>43580</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4875,11 +4875,11 @@
         </is>
       </c>
       <c r="C215" s="2" t="n">
-        <v>43588</v>
+        <v>43584</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="C216" s="2" t="n">
-        <v>43591</v>
+        <v>43588</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4917,11 +4917,11 @@
         </is>
       </c>
       <c r="C217" s="2" t="n">
-        <v>43599</v>
+        <v>43588</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -4934,11 +4934,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1007</t>
+          <t>Filling 6 Line F6L1006</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
-        <v>43381</v>
+        <v>43591</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4955,15 +4955,15 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1007</t>
+          <t>Filling 6 Line F6L1006</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
-        <v>43502</v>
+        <v>43599</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Part hilang</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -4976,11 +4976,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1007</t>
+          <t>Filling 6 Line F6L1006</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
-        <v>43507</v>
+        <v>43603</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -5001,11 +5001,11 @@
         </is>
       </c>
       <c r="C221" s="2" t="n">
-        <v>43510</v>
+        <v>43381</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -5022,11 +5022,11 @@
         </is>
       </c>
       <c r="C222" s="2" t="n">
-        <v>43516</v>
+        <v>43502</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part hilang</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -5043,11 +5043,11 @@
         </is>
       </c>
       <c r="C223" s="2" t="n">
-        <v>43593</v>
+        <v>43507</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -5064,7 +5064,7 @@
         </is>
       </c>
       <c r="C224" s="2" t="n">
-        <v>43594</v>
+        <v>43510</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -5081,15 +5081,15 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1008</t>
+          <t>Filling 6 Line F6L1007</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
-        <v>43374</v>
+        <v>43516</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -5102,11 +5102,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1008</t>
+          <t>Filling 6 Line F6L1007</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
-        <v>43377</v>
+        <v>43593</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -5123,15 +5123,15 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1008</t>
+          <t>Filling 6 Line F6L1007</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
-        <v>43383</v>
+        <v>43594</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="C228" s="2" t="n">
-        <v>43447</v>
+        <v>43374</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -5169,11 +5169,11 @@
         </is>
       </c>
       <c r="C229" s="2" t="n">
-        <v>43452</v>
+        <v>43377</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -5190,11 +5190,11 @@
         </is>
       </c>
       <c r="C230" s="2" t="n">
-        <v>43474</v>
+        <v>43383</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -5211,11 +5211,11 @@
         </is>
       </c>
       <c r="C231" s="2" t="n">
-        <v>43483</v>
+        <v>43447</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Inspeksi</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -5232,11 +5232,11 @@
         </is>
       </c>
       <c r="C232" s="2" t="n">
-        <v>43486</v>
+        <v>43452</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -5253,7 +5253,7 @@
         </is>
       </c>
       <c r="C233" s="2" t="n">
-        <v>43486</v>
+        <v>43474</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -5274,11 +5274,11 @@
         </is>
       </c>
       <c r="C234" s="2" t="n">
-        <v>43486</v>
+        <v>43483</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Inspeksi</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -5295,7 +5295,7 @@
         </is>
       </c>
       <c r="C235" s="2" t="n">
-        <v>43487</v>
+        <v>43486</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         </is>
       </c>
       <c r="C236" s="2" t="n">
-        <v>43489</v>
+        <v>43486</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         </is>
       </c>
       <c r="C237" s="2" t="n">
-        <v>43490</v>
+        <v>43486</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -5358,11 +5358,11 @@
         </is>
       </c>
       <c r="C238" s="2" t="n">
-        <v>43496</v>
+        <v>43487</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -5379,11 +5379,11 @@
         </is>
       </c>
       <c r="C239" s="2" t="n">
-        <v>43497</v>
+        <v>43489</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -5400,11 +5400,11 @@
         </is>
       </c>
       <c r="C240" s="2" t="n">
-        <v>43602</v>
+        <v>43490</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -5417,11 +5417,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1009</t>
+          <t>Filling 6 Line F6L1008</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
-        <v>43377</v>
+        <v>43496</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -5438,11 +5438,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1009</t>
+          <t>Filling 6 Line F6L1008</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
-        <v>43378</v>
+        <v>43497</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -5459,11 +5459,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1009</t>
+          <t>Filling 6 Line F6L1008</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
-        <v>43426</v>
+        <v>43602</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         </is>
       </c>
       <c r="C244" s="2" t="n">
-        <v>43433</v>
+        <v>43377</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         </is>
       </c>
       <c r="C245" s="2" t="n">
-        <v>43434</v>
+        <v>43378</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -5526,11 +5526,11 @@
         </is>
       </c>
       <c r="C246" s="2" t="n">
-        <v>43438</v>
+        <v>43426</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E246" t="n">
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="C247" s="2" t="n">
-        <v>43441</v>
+        <v>43433</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         </is>
       </c>
       <c r="C248" s="2" t="n">
-        <v>43446</v>
+        <v>43434</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="C249" s="2" t="n">
-        <v>43453</v>
+        <v>43438</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         </is>
       </c>
       <c r="C250" s="2" t="n">
-        <v>43475</v>
+        <v>43441</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
         </is>
       </c>
       <c r="C251" s="2" t="n">
-        <v>43479</v>
+        <v>43446</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -5652,11 +5652,11 @@
         </is>
       </c>
       <c r="C252" s="2" t="n">
-        <v>43479</v>
+        <v>43453</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -5673,7 +5673,7 @@
         </is>
       </c>
       <c r="C253" s="2" t="n">
-        <v>43480</v>
+        <v>43475</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         </is>
       </c>
       <c r="C254" s="2" t="n">
-        <v>43496</v>
+        <v>43479</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         </is>
       </c>
       <c r="C255" s="2" t="n">
-        <v>43497</v>
+        <v>43479</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5736,11 +5736,11 @@
         </is>
       </c>
       <c r="C256" s="2" t="n">
-        <v>43504</v>
+        <v>43480</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -5757,11 +5757,11 @@
         </is>
       </c>
       <c r="C257" s="2" t="n">
-        <v>43507</v>
+        <v>43496</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="C258" s="2" t="n">
-        <v>43507</v>
+        <v>43497</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         </is>
       </c>
       <c r="C259" s="2" t="n">
-        <v>43508</v>
+        <v>43504</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5820,11 +5820,11 @@
         </is>
       </c>
       <c r="C260" s="2" t="n">
-        <v>43508</v>
+        <v>43507</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -5841,11 +5841,11 @@
         </is>
       </c>
       <c r="C261" s="2" t="n">
-        <v>43509</v>
+        <v>43507</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E261" t="n">
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="C262" s="2" t="n">
-        <v>43509</v>
+        <v>43508</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         </is>
       </c>
       <c r="C263" s="2" t="n">
-        <v>43510</v>
+        <v>43508</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         </is>
       </c>
       <c r="C264" s="2" t="n">
-        <v>43510</v>
+        <v>43509</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5925,11 +5925,11 @@
         </is>
       </c>
       <c r="C265" s="2" t="n">
-        <v>43514</v>
+        <v>43509</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E265" t="n">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="C266" s="2" t="n">
-        <v>43516</v>
+        <v>43510</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="C267" s="2" t="n">
-        <v>43518</v>
+        <v>43510</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5988,11 +5988,11 @@
         </is>
       </c>
       <c r="C268" s="2" t="n">
-        <v>43524</v>
+        <v>43514</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E268" t="n">
@@ -6009,11 +6009,11 @@
         </is>
       </c>
       <c r="C269" s="2" t="n">
-        <v>43525</v>
+        <v>43516</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E269" t="n">
@@ -6030,11 +6030,11 @@
         </is>
       </c>
       <c r="C270" s="2" t="n">
-        <v>43535</v>
+        <v>43518</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Kurang lubrikasi</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E270" t="n">
@@ -6051,11 +6051,11 @@
         </is>
       </c>
       <c r="C271" s="2" t="n">
-        <v>43537</v>
+        <v>43524</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E271" t="n">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="C272" s="2" t="n">
-        <v>43545</v>
+        <v>43525</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -6093,11 +6093,11 @@
         </is>
       </c>
       <c r="C273" s="2" t="n">
-        <v>43545</v>
+        <v>43535</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E273" t="n">
@@ -6114,11 +6114,11 @@
         </is>
       </c>
       <c r="C274" s="2" t="n">
-        <v>43549</v>
+        <v>43537</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E274" t="n">
@@ -6135,11 +6135,11 @@
         </is>
       </c>
       <c r="C275" s="2" t="n">
-        <v>43550</v>
+        <v>43545</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E275" t="n">
@@ -6156,7 +6156,7 @@
         </is>
       </c>
       <c r="C276" s="2" t="n">
-        <v>43551</v>
+        <v>43545</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="C277" s="2" t="n">
-        <v>43552</v>
+        <v>43549</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -6198,11 +6198,11 @@
         </is>
       </c>
       <c r="C278" s="2" t="n">
-        <v>43556</v>
+        <v>43550</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E278" t="n">
@@ -6219,11 +6219,11 @@
         </is>
       </c>
       <c r="C279" s="2" t="n">
-        <v>43557</v>
+        <v>43551</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E279" t="n">
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="C280" s="2" t="n">
-        <v>43559</v>
+        <v>43552</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         </is>
       </c>
       <c r="C281" s="2" t="n">
-        <v>43565</v>
+        <v>43556</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -6278,15 +6278,15 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1010</t>
+          <t>Filling 6 Line F6L1009</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
-        <v>43378</v>
+        <v>43557</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E282" t="n">
@@ -6299,11 +6299,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1010</t>
+          <t>Filling 6 Line F6L1009</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
-        <v>43385</v>
+        <v>43559</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -6320,11 +6320,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1010</t>
+          <t>Filling 6 Line F6L1009</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
-        <v>43391</v>
+        <v>43565</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         </is>
       </c>
       <c r="C285" s="2" t="n">
-        <v>43419</v>
+        <v>43378</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -6366,11 +6366,11 @@
         </is>
       </c>
       <c r="C286" s="2" t="n">
-        <v>43421</v>
+        <v>43385</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E286" t="n">
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="C287" s="2" t="n">
-        <v>43423</v>
+        <v>43391</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -6408,11 +6408,11 @@
         </is>
       </c>
       <c r="C288" s="2" t="n">
-        <v>43497</v>
+        <v>43419</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E288" t="n">
@@ -6429,11 +6429,11 @@
         </is>
       </c>
       <c r="C289" s="2" t="n">
-        <v>43497</v>
+        <v>43421</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E289" t="n">
@@ -6450,11 +6450,11 @@
         </is>
       </c>
       <c r="C290" s="2" t="n">
-        <v>43500</v>
+        <v>43423</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E290" t="n">
@@ -6471,11 +6471,11 @@
         </is>
       </c>
       <c r="C291" s="2" t="n">
-        <v>43515</v>
+        <v>43497</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E291" t="n">
@@ -6492,11 +6492,11 @@
         </is>
       </c>
       <c r="C292" s="2" t="n">
-        <v>43516</v>
+        <v>43497</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E292" t="n">
@@ -6513,11 +6513,11 @@
         </is>
       </c>
       <c r="C293" s="2" t="n">
-        <v>43525</v>
+        <v>43500</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E293" t="n">
@@ -6534,11 +6534,11 @@
         </is>
       </c>
       <c r="C294" s="2" t="n">
-        <v>43532</v>
+        <v>43515</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E294" t="n">
@@ -6555,7 +6555,7 @@
         </is>
       </c>
       <c r="C295" s="2" t="n">
-        <v>43535</v>
+        <v>43516</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -6576,11 +6576,11 @@
         </is>
       </c>
       <c r="C296" s="2" t="n">
-        <v>43536</v>
+        <v>43525</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E296" t="n">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="C297" s="2" t="n">
-        <v>43556</v>
+        <v>43532</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -6618,11 +6618,11 @@
         </is>
       </c>
       <c r="C298" s="2" t="n">
-        <v>43563</v>
+        <v>43535</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E298" t="n">
@@ -6639,11 +6639,11 @@
         </is>
       </c>
       <c r="C299" s="2" t="n">
-        <v>43567</v>
+        <v>43536</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E299" t="n">
@@ -6660,7 +6660,7 @@
         </is>
       </c>
       <c r="C300" s="2" t="n">
-        <v>43594</v>
+        <v>43556</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -6681,11 +6681,11 @@
         </is>
       </c>
       <c r="C301" s="2" t="n">
-        <v>43595</v>
+        <v>43563</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E301" t="n">
@@ -6698,15 +6698,15 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1011</t>
+          <t>Filling 6 Line F6L1010</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
-        <v>43374</v>
+        <v>43567</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E302" t="n">
@@ -6719,11 +6719,11 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1011</t>
+          <t>Filling 6 Line F6L1010</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
-        <v>43396</v>
+        <v>43594</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -6740,15 +6740,15 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1011</t>
+          <t>Filling 6 Line F6L1010</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
-        <v>43440</v>
+        <v>43595</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E304" t="n">
@@ -6765,7 +6765,7 @@
         </is>
       </c>
       <c r="C305" s="2" t="n">
-        <v>43448</v>
+        <v>43374</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -6786,11 +6786,11 @@
         </is>
       </c>
       <c r="C306" s="2" t="n">
-        <v>43460</v>
+        <v>43396</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E306" t="n">
@@ -6807,11 +6807,11 @@
         </is>
       </c>
       <c r="C307" s="2" t="n">
-        <v>43490</v>
+        <v>43440</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E307" t="n">
@@ -6828,7 +6828,7 @@
         </is>
       </c>
       <c r="C308" s="2" t="n">
-        <v>43503</v>
+        <v>43448</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -6849,11 +6849,11 @@
         </is>
       </c>
       <c r="C309" s="2" t="n">
-        <v>43509</v>
+        <v>43460</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
         </is>
       </c>
       <c r="E309" t="n">
@@ -6870,11 +6870,11 @@
         </is>
       </c>
       <c r="C310" s="2" t="n">
-        <v>43509</v>
+        <v>43490</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E310" t="n">
@@ -6891,11 +6891,11 @@
         </is>
       </c>
       <c r="C311" s="2" t="n">
-        <v>43510</v>
+        <v>43503</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E311" t="n">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="C312" s="2" t="n">
-        <v>43510</v>
+        <v>43509</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="C313" s="2" t="n">
-        <v>43525</v>
+        <v>43509</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E313" t="n">
@@ -6954,11 +6954,11 @@
         </is>
       </c>
       <c r="C314" s="2" t="n">
-        <v>43528</v>
+        <v>43510</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E314" t="n">
@@ -6975,11 +6975,11 @@
         </is>
       </c>
       <c r="C315" s="2" t="n">
-        <v>43552</v>
+        <v>43510</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E315" t="n">
@@ -6996,11 +6996,11 @@
         </is>
       </c>
       <c r="C316" s="2" t="n">
-        <v>43566</v>
+        <v>43525</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E316" t="n">
@@ -7017,7 +7017,7 @@
         </is>
       </c>
       <c r="C317" s="2" t="n">
-        <v>43570</v>
+        <v>43528</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -7038,11 +7038,11 @@
         </is>
       </c>
       <c r="C318" s="2" t="n">
-        <v>43585</v>
+        <v>43552</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E318" t="n">
@@ -7059,11 +7059,11 @@
         </is>
       </c>
       <c r="C319" s="2" t="n">
-        <v>43585</v>
+        <v>43566</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E319" t="n">
@@ -7080,11 +7080,11 @@
         </is>
       </c>
       <c r="C320" s="2" t="n">
-        <v>43588</v>
+        <v>43570</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E320" t="n">
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="C321" s="2" t="n">
-        <v>43593</v>
+        <v>43585</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -7122,11 +7122,11 @@
         </is>
       </c>
       <c r="C322" s="2" t="n">
-        <v>43593</v>
+        <v>43585</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E322" t="n">
@@ -7139,15 +7139,15 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1012</t>
+          <t>Filling 6 Line F6L1011</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
-        <v>43409</v>
+        <v>43588</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E323" t="n">
@@ -7160,11 +7160,11 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1012</t>
+          <t>Filling 6 Line F6L1011</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
-        <v>43413</v>
+        <v>43593</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -7181,15 +7181,15 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1012</t>
+          <t>Filling 6 Line F6L1011</t>
         </is>
       </c>
       <c r="C325" s="2" t="n">
-        <v>43433</v>
+        <v>43593</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E325" t="n">
@@ -7206,7 +7206,7 @@
         </is>
       </c>
       <c r="C326" s="2" t="n">
-        <v>43440</v>
+        <v>43409</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="C327" s="2" t="n">
-        <v>43444</v>
+        <v>43413</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         </is>
       </c>
       <c r="C328" s="2" t="n">
-        <v>43462</v>
+        <v>43433</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -7269,11 +7269,11 @@
         </is>
       </c>
       <c r="C329" s="2" t="n">
-        <v>43584</v>
+        <v>43440</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E329" t="n">
@@ -7290,11 +7290,11 @@
         </is>
       </c>
       <c r="C330" s="2" t="n">
-        <v>43585</v>
+        <v>43444</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E330" t="n">
@@ -7311,11 +7311,11 @@
         </is>
       </c>
       <c r="C331" s="2" t="n">
-        <v>43588</v>
+        <v>43462</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E331" t="n">
@@ -7332,11 +7332,11 @@
         </is>
       </c>
       <c r="C332" s="2" t="n">
-        <v>43598</v>
+        <v>43584</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E332" t="n">
@@ -7353,11 +7353,11 @@
         </is>
       </c>
       <c r="C333" s="2" t="n">
-        <v>43599</v>
+        <v>43585</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E333" t="n">
@@ -7370,11 +7370,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1013</t>
+          <t>Filling 6 Line F6L1012</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
-        <v>43374</v>
+        <v>43588</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -7391,11 +7391,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1013</t>
+          <t>Filling 6 Line F6L1012</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
-        <v>43376</v>
+        <v>43598</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -7412,15 +7412,15 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1013</t>
+          <t>Filling 6 Line F6L1012</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
-        <v>43377</v>
+        <v>43599</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E336" t="n">
@@ -7433,15 +7433,15 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1013</t>
+          <t>Filling 6 Line F6L1012</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
-        <v>43388</v>
+        <v>43601</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E337" t="n">
@@ -7458,11 +7458,11 @@
         </is>
       </c>
       <c r="C338" s="2" t="n">
-        <v>43397</v>
+        <v>43374</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E338" t="n">
@@ -7479,11 +7479,11 @@
         </is>
       </c>
       <c r="C339" s="2" t="n">
-        <v>43406</v>
+        <v>43376</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Part hilang</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E339" t="n">
@@ -7500,7 +7500,7 @@
         </is>
       </c>
       <c r="C340" s="2" t="n">
-        <v>43417</v>
+        <v>43377</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -7521,11 +7521,11 @@
         </is>
       </c>
       <c r="C341" s="2" t="n">
-        <v>43433</v>
+        <v>43388</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E341" t="n">
@@ -7542,11 +7542,11 @@
         </is>
       </c>
       <c r="C342" s="2" t="n">
-        <v>43433</v>
+        <v>43397</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E342" t="n">
@@ -7563,11 +7563,11 @@
         </is>
       </c>
       <c r="C343" s="2" t="n">
-        <v>43438</v>
+        <v>43406</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part hilang</t>
         </is>
       </c>
       <c r="E343" t="n">
@@ -7584,11 +7584,11 @@
         </is>
       </c>
       <c r="C344" s="2" t="n">
-        <v>43496</v>
+        <v>43417</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E344" t="n">
@@ -7605,11 +7605,11 @@
         </is>
       </c>
       <c r="C345" s="2" t="n">
-        <v>43507</v>
+        <v>43433</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E345" t="n">
@@ -7626,11 +7626,11 @@
         </is>
       </c>
       <c r="C346" s="2" t="n">
-        <v>43508</v>
+        <v>43433</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E346" t="n">
@@ -7647,11 +7647,11 @@
         </is>
       </c>
       <c r="C347" s="2" t="n">
-        <v>43537</v>
+        <v>43438</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E347" t="n">
@@ -7668,7 +7668,7 @@
         </is>
       </c>
       <c r="C348" s="2" t="n">
-        <v>43538</v>
+        <v>43496</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -7689,11 +7689,11 @@
         </is>
       </c>
       <c r="C349" s="2" t="n">
-        <v>43538</v>
+        <v>43507</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E349" t="n">
@@ -7710,11 +7710,11 @@
         </is>
       </c>
       <c r="C350" s="2" t="n">
-        <v>43549</v>
+        <v>43508</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E350" t="n">
@@ -7731,7 +7731,7 @@
         </is>
       </c>
       <c r="C351" s="2" t="n">
-        <v>43550</v>
+        <v>43537</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="C352" s="2" t="n">
-        <v>43570</v>
+        <v>43538</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -7769,11 +7769,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1014</t>
+          <t>Filling 6 Line F6L1013</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
-        <v>43374</v>
+        <v>43538</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -7790,15 +7790,15 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1014</t>
+          <t>Filling 6 Line F6L1013</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
-        <v>43375</v>
+        <v>43549</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E354" t="n">
@@ -7811,15 +7811,15 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1014</t>
+          <t>Filling 6 Line F6L1013</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
-        <v>43395</v>
+        <v>43550</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E355" t="n">
@@ -7832,15 +7832,15 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1014</t>
+          <t>Filling 6 Line F6L1013</t>
         </is>
       </c>
       <c r="C356" s="2" t="n">
-        <v>43412</v>
+        <v>43570</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E356" t="n">
@@ -7857,11 +7857,11 @@
         </is>
       </c>
       <c r="C357" s="2" t="n">
-        <v>43412</v>
+        <v>43374</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E357" t="n">
@@ -7878,11 +7878,11 @@
         </is>
       </c>
       <c r="C358" s="2" t="n">
-        <v>43416</v>
+        <v>43375</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E358" t="n">
@@ -7899,11 +7899,11 @@
         </is>
       </c>
       <c r="C359" s="2" t="n">
-        <v>43479</v>
+        <v>43395</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E359" t="n">
@@ -7920,11 +7920,11 @@
         </is>
       </c>
       <c r="C360" s="2" t="n">
-        <v>43480</v>
+        <v>43412</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E360" t="n">
@@ -7941,11 +7941,11 @@
         </is>
       </c>
       <c r="C361" s="2" t="n">
-        <v>43487</v>
+        <v>43412</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Part hilang</t>
+          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
         </is>
       </c>
       <c r="E361" t="n">
@@ -7962,11 +7962,11 @@
         </is>
       </c>
       <c r="C362" s="2" t="n">
-        <v>43488</v>
+        <v>43416</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E362" t="n">
@@ -7983,11 +7983,11 @@
         </is>
       </c>
       <c r="C363" s="2" t="n">
-        <v>43488</v>
+        <v>43479</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E363" t="n">
@@ -8004,11 +8004,11 @@
         </is>
       </c>
       <c r="C364" s="2" t="n">
-        <v>43493</v>
+        <v>43480</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E364" t="n">
@@ -8025,11 +8025,11 @@
         </is>
       </c>
       <c r="C365" s="2" t="n">
-        <v>43495</v>
+        <v>43487</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part hilang</t>
         </is>
       </c>
       <c r="E365" t="n">
@@ -8046,11 +8046,11 @@
         </is>
       </c>
       <c r="C366" s="2" t="n">
-        <v>43502</v>
+        <v>43488</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E366" t="n">
@@ -8067,11 +8067,11 @@
         </is>
       </c>
       <c r="C367" s="2" t="n">
-        <v>43502</v>
+        <v>43488</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E367" t="n">
@@ -8088,7 +8088,7 @@
         </is>
       </c>
       <c r="C368" s="2" t="n">
-        <v>43504</v>
+        <v>43493</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="C369" s="2" t="n">
-        <v>43507</v>
+        <v>43495</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -8130,7 +8130,7 @@
         </is>
       </c>
       <c r="C370" s="2" t="n">
-        <v>43508</v>
+        <v>43502</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         </is>
       </c>
       <c r="C371" s="2" t="n">
-        <v>43508</v>
+        <v>43502</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="C372" s="2" t="n">
-        <v>43514</v>
+        <v>43504</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -8193,11 +8193,11 @@
         </is>
       </c>
       <c r="C373" s="2" t="n">
-        <v>43528</v>
+        <v>43507</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E373" t="n">
@@ -8214,7 +8214,7 @@
         </is>
       </c>
       <c r="C374" s="2" t="n">
-        <v>43528</v>
+        <v>43508</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -8235,11 +8235,11 @@
         </is>
       </c>
       <c r="C375" s="2" t="n">
-        <v>43529</v>
+        <v>43508</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E375" t="n">
@@ -8256,11 +8256,11 @@
         </is>
       </c>
       <c r="C376" s="2" t="n">
-        <v>43598</v>
+        <v>43514</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E376" t="n">
@@ -8273,15 +8273,15 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1015</t>
+          <t>Filling 6 Line F6L1014</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
-        <v>43377</v>
+        <v>43528</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E377" t="n">
@@ -8294,15 +8294,15 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1015</t>
+          <t>Filling 6 Line F6L1014</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
-        <v>43398</v>
+        <v>43528</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E378" t="n">
@@ -8315,15 +8315,15 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1015</t>
+          <t>Filling 6 Line F6L1014</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
-        <v>43403</v>
+        <v>43529</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E379" t="n">
@@ -8336,11 +8336,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1015</t>
+          <t>Filling 6 Line F6L1014</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
-        <v>43409</v>
+        <v>43598</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -8361,11 +8361,11 @@
         </is>
       </c>
       <c r="C381" s="2" t="n">
-        <v>43437</v>
+        <v>43377</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E381" t="n">
@@ -8382,11 +8382,11 @@
         </is>
       </c>
       <c r="C382" s="2" t="n">
-        <v>43448</v>
+        <v>43398</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E382" t="n">
@@ -8403,11 +8403,11 @@
         </is>
       </c>
       <c r="C383" s="2" t="n">
-        <v>43451</v>
+        <v>43403</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E383" t="n">
@@ -8424,11 +8424,11 @@
         </is>
       </c>
       <c r="C384" s="2" t="n">
-        <v>43467</v>
+        <v>43409</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E384" t="n">
@@ -8445,11 +8445,11 @@
         </is>
       </c>
       <c r="C385" s="2" t="n">
-        <v>43469</v>
+        <v>43437</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E385" t="n">
@@ -8466,11 +8466,11 @@
         </is>
       </c>
       <c r="C386" s="2" t="n">
-        <v>43473</v>
+        <v>43448</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E386" t="n">
@@ -8487,11 +8487,11 @@
         </is>
       </c>
       <c r="C387" s="2" t="n">
-        <v>43489</v>
+        <v>43451</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
         </is>
       </c>
       <c r="E387" t="n">
@@ -8508,11 +8508,11 @@
         </is>
       </c>
       <c r="C388" s="2" t="n">
-        <v>43515</v>
+        <v>43467</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Part hilang</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E388" t="n">
@@ -8529,7 +8529,7 @@
         </is>
       </c>
       <c r="C389" s="2" t="n">
-        <v>43565</v>
+        <v>43469</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -8550,11 +8550,11 @@
         </is>
       </c>
       <c r="C390" s="2" t="n">
-        <v>43570</v>
+        <v>43473</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E390" t="n">
@@ -8571,11 +8571,11 @@
         </is>
       </c>
       <c r="C391" s="2" t="n">
-        <v>43580</v>
+        <v>43489</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Kurang lubrikasi</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E391" t="n">
@@ -8588,15 +8588,15 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1016</t>
+          <t>Filling 6 Line F6L1015</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
-        <v>43376</v>
+        <v>43515</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part hilang</t>
         </is>
       </c>
       <c r="E392" t="n">
@@ -8609,15 +8609,15 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1016</t>
+          <t>Filling 6 Line F6L1015</t>
         </is>
       </c>
       <c r="C393" s="2" t="n">
-        <v>43378</v>
+        <v>43565</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E393" t="n">
@@ -8630,11 +8630,11 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1016</t>
+          <t>Filling 6 Line F6L1015</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
-        <v>43395</v>
+        <v>43570</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -8651,15 +8651,15 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1016</t>
+          <t>Filling 6 Line F6L1015</t>
         </is>
       </c>
       <c r="C395" s="2" t="n">
-        <v>43397</v>
+        <v>43580</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E395" t="n">
@@ -8676,7 +8676,7 @@
         </is>
       </c>
       <c r="C396" s="2" t="n">
-        <v>43399</v>
+        <v>43376</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -8697,11 +8697,11 @@
         </is>
       </c>
       <c r="C397" s="2" t="n">
-        <v>43416</v>
+        <v>43378</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E397" t="n">
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="C398" s="2" t="n">
-        <v>43417</v>
+        <v>43395</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -8739,11 +8739,11 @@
         </is>
       </c>
       <c r="C399" s="2" t="n">
-        <v>43417</v>
+        <v>43397</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E399" t="n">
@@ -8760,11 +8760,11 @@
         </is>
       </c>
       <c r="C400" s="2" t="n">
-        <v>43419</v>
+        <v>43399</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E400" t="n">
@@ -8781,11 +8781,11 @@
         </is>
       </c>
       <c r="C401" s="2" t="n">
-        <v>43434</v>
+        <v>43416</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E401" t="n">
@@ -8802,7 +8802,7 @@
         </is>
       </c>
       <c r="C402" s="2" t="n">
-        <v>43434</v>
+        <v>43417</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         </is>
       </c>
       <c r="C403" s="2" t="n">
-        <v>43434</v>
+        <v>43417</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -8844,11 +8844,11 @@
         </is>
       </c>
       <c r="C404" s="2" t="n">
-        <v>43446</v>
+        <v>43419</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E404" t="n">
@@ -8865,11 +8865,11 @@
         </is>
       </c>
       <c r="C405" s="2" t="n">
-        <v>43447</v>
+        <v>43434</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E405" t="n">
@@ -8886,7 +8886,7 @@
         </is>
       </c>
       <c r="C406" s="2" t="n">
-        <v>43451</v>
+        <v>43434</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         </is>
       </c>
       <c r="C407" s="2" t="n">
-        <v>43452</v>
+        <v>43434</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -8928,11 +8928,11 @@
         </is>
       </c>
       <c r="C408" s="2" t="n">
-        <v>43454</v>
+        <v>43446</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E408" t="n">
@@ -8949,7 +8949,7 @@
         </is>
       </c>
       <c r="C409" s="2" t="n">
-        <v>43467</v>
+        <v>43447</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         </is>
       </c>
       <c r="C410" s="2" t="n">
-        <v>43468</v>
+        <v>43451</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -8991,11 +8991,11 @@
         </is>
       </c>
       <c r="C411" s="2" t="n">
-        <v>43473</v>
+        <v>43452</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E411" t="n">
@@ -9012,11 +9012,11 @@
         </is>
       </c>
       <c r="C412" s="2" t="n">
-        <v>43475</v>
+        <v>43454</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E412" t="n">
@@ -9033,11 +9033,11 @@
         </is>
       </c>
       <c r="C413" s="2" t="n">
-        <v>43476</v>
+        <v>43467</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E413" t="n">
@@ -9054,7 +9054,7 @@
         </is>
       </c>
       <c r="C414" s="2" t="n">
-        <v>43479</v>
+        <v>43468</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -9075,11 +9075,11 @@
         </is>
       </c>
       <c r="C415" s="2" t="n">
-        <v>43480</v>
+        <v>43473</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E415" t="n">
@@ -9096,11 +9096,11 @@
         </is>
       </c>
       <c r="C416" s="2" t="n">
-        <v>43481</v>
+        <v>43475</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E416" t="n">
@@ -9117,11 +9117,11 @@
         </is>
       </c>
       <c r="C417" s="2" t="n">
-        <v>43481</v>
+        <v>43476</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E417" t="n">
@@ -9138,11 +9138,11 @@
         </is>
       </c>
       <c r="C418" s="2" t="n">
-        <v>43488</v>
+        <v>43479</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E418" t="n">
@@ -9159,11 +9159,11 @@
         </is>
       </c>
       <c r="C419" s="2" t="n">
-        <v>43490</v>
+        <v>43480</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E419" t="n">
@@ -9180,11 +9180,11 @@
         </is>
       </c>
       <c r="C420" s="2" t="n">
-        <v>43494</v>
+        <v>43481</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E420" t="n">
@@ -9201,11 +9201,11 @@
         </is>
       </c>
       <c r="C421" s="2" t="n">
-        <v>43495</v>
+        <v>43481</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E421" t="n">
@@ -9222,11 +9222,11 @@
         </is>
       </c>
       <c r="C422" s="2" t="n">
-        <v>43504</v>
+        <v>43488</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E422" t="n">
@@ -9243,11 +9243,11 @@
         </is>
       </c>
       <c r="C423" s="2" t="n">
-        <v>43508</v>
+        <v>43490</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E423" t="n">
@@ -9264,11 +9264,11 @@
         </is>
       </c>
       <c r="C424" s="2" t="n">
-        <v>43514</v>
+        <v>43494</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E424" t="n">
@@ -9285,7 +9285,7 @@
         </is>
       </c>
       <c r="C425" s="2" t="n">
-        <v>43515</v>
+        <v>43495</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -9306,11 +9306,11 @@
         </is>
       </c>
       <c r="C426" s="2" t="n">
-        <v>43517</v>
+        <v>43504</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E426" t="n">
@@ -9327,11 +9327,11 @@
         </is>
       </c>
       <c r="C427" s="2" t="n">
-        <v>43523</v>
+        <v>43508</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E427" t="n">
@@ -9348,7 +9348,7 @@
         </is>
       </c>
       <c r="C428" s="2" t="n">
-        <v>43523</v>
+        <v>43514</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         </is>
       </c>
       <c r="C429" s="2" t="n">
-        <v>43523</v>
+        <v>43515</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         </is>
       </c>
       <c r="C430" s="2" t="n">
-        <v>43538</v>
+        <v>43517</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -9411,11 +9411,11 @@
         </is>
       </c>
       <c r="C431" s="2" t="n">
-        <v>43539</v>
+        <v>43523</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E431" t="n">
@@ -9432,7 +9432,7 @@
         </is>
       </c>
       <c r="C432" s="2" t="n">
-        <v>43544</v>
+        <v>43523</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -9453,11 +9453,11 @@
         </is>
       </c>
       <c r="C433" s="2" t="n">
-        <v>43545</v>
+        <v>43523</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E433" t="n">
@@ -9474,7 +9474,7 @@
         </is>
       </c>
       <c r="C434" s="2" t="n">
-        <v>43546</v>
+        <v>43538</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -9495,11 +9495,11 @@
         </is>
       </c>
       <c r="C435" s="2" t="n">
-        <v>43551</v>
+        <v>43539</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E435" t="n">
@@ -9516,7 +9516,7 @@
         </is>
       </c>
       <c r="C436" s="2" t="n">
-        <v>43553</v>
+        <v>43544</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -9537,11 +9537,11 @@
         </is>
       </c>
       <c r="C437" s="2" t="n">
-        <v>43556</v>
+        <v>43545</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E437" t="n">
@@ -9558,7 +9558,7 @@
         </is>
       </c>
       <c r="C438" s="2" t="n">
-        <v>43559</v>
+        <v>43546</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -9579,11 +9579,11 @@
         </is>
       </c>
       <c r="C439" s="2" t="n">
-        <v>43571</v>
+        <v>43551</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E439" t="n">
@@ -9600,11 +9600,11 @@
         </is>
       </c>
       <c r="C440" s="2" t="n">
-        <v>43578</v>
+        <v>43553</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E440" t="n">
@@ -9621,11 +9621,11 @@
         </is>
       </c>
       <c r="C441" s="2" t="n">
-        <v>43580</v>
+        <v>43556</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Kurang lubrikasi</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E441" t="n">
@@ -9642,11 +9642,11 @@
         </is>
       </c>
       <c r="C442" s="2" t="n">
-        <v>43585</v>
+        <v>43559</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E442" t="n">
@@ -9663,11 +9663,11 @@
         </is>
       </c>
       <c r="C443" s="2" t="n">
-        <v>43587</v>
+        <v>43571</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E443" t="n">
@@ -9684,7 +9684,7 @@
         </is>
       </c>
       <c r="C444" s="2" t="n">
-        <v>43591</v>
+        <v>43578</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -9705,11 +9705,11 @@
         </is>
       </c>
       <c r="C445" s="2" t="n">
-        <v>43598</v>
+        <v>43580</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E445" t="n">
@@ -9722,15 +9722,15 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1017</t>
+          <t>Filling 6 Line F6L1016</t>
         </is>
       </c>
       <c r="C446" s="2" t="n">
-        <v>43374</v>
+        <v>43585</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Kabel tidak terlindungi</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E446" t="n">
@@ -9743,15 +9743,15 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1017</t>
+          <t>Filling 6 Line F6L1016</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
-        <v>43375</v>
+        <v>43587</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E447" t="n">
@@ -9764,15 +9764,15 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1017</t>
+          <t>Filling 6 Line F6L1016</t>
         </is>
       </c>
       <c r="C448" s="2" t="n">
-        <v>43383</v>
+        <v>43591</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E448" t="n">
@@ -9785,15 +9785,15 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1017</t>
+          <t>Filling 6 Line F6L1016</t>
         </is>
       </c>
       <c r="C449" s="2" t="n">
-        <v>43388</v>
+        <v>43598</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E449" t="n">
@@ -9810,11 +9810,11 @@
         </is>
       </c>
       <c r="C450" s="2" t="n">
-        <v>43389</v>
+        <v>43374</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Kabel tidak terlindungi</t>
         </is>
       </c>
       <c r="E450" t="n">
@@ -9831,11 +9831,11 @@
         </is>
       </c>
       <c r="C451" s="2" t="n">
-        <v>43389</v>
+        <v>43375</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E451" t="n">
@@ -9852,7 +9852,7 @@
         </is>
       </c>
       <c r="C452" s="2" t="n">
-        <v>43391</v>
+        <v>43383</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -9873,11 +9873,11 @@
         </is>
       </c>
       <c r="C453" s="2" t="n">
-        <v>43395</v>
+        <v>43388</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Kurang lubrikasi</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E453" t="n">
@@ -9894,7 +9894,7 @@
         </is>
       </c>
       <c r="C454" s="2" t="n">
-        <v>43406</v>
+        <v>43389</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -9915,11 +9915,11 @@
         </is>
       </c>
       <c r="C455" s="2" t="n">
-        <v>43409</v>
+        <v>43389</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E455" t="n">
@@ -9936,11 +9936,11 @@
         </is>
       </c>
       <c r="C456" s="2" t="n">
-        <v>43416</v>
+        <v>43391</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E456" t="n">
@@ -9957,11 +9957,11 @@
         </is>
       </c>
       <c r="C457" s="2" t="n">
-        <v>43427</v>
+        <v>43395</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E457" t="n">
@@ -9978,11 +9978,11 @@
         </is>
       </c>
       <c r="C458" s="2" t="n">
-        <v>43488</v>
+        <v>43406</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E458" t="n">
@@ -9999,7 +9999,7 @@
         </is>
       </c>
       <c r="C459" s="2" t="n">
-        <v>43489</v>
+        <v>43409</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         </is>
       </c>
       <c r="C460" s="2" t="n">
-        <v>43489</v>
+        <v>43416</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -10041,11 +10041,11 @@
         </is>
       </c>
       <c r="C461" s="2" t="n">
-        <v>43493</v>
+        <v>43427</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E461" t="n">
@@ -10062,7 +10062,7 @@
         </is>
       </c>
       <c r="C462" s="2" t="n">
-        <v>43493</v>
+        <v>43488</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -10083,11 +10083,11 @@
         </is>
       </c>
       <c r="C463" s="2" t="n">
-        <v>43507</v>
+        <v>43489</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E463" t="n">
@@ -10104,11 +10104,11 @@
         </is>
       </c>
       <c r="C464" s="2" t="n">
-        <v>43532</v>
+        <v>43489</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E464" t="n">
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="C465" s="2" t="n">
-        <v>43533</v>
+        <v>43493</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -10146,11 +10146,11 @@
         </is>
       </c>
       <c r="C466" s="2" t="n">
-        <v>43535</v>
+        <v>43493</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E466" t="n">
@@ -10167,11 +10167,11 @@
         </is>
       </c>
       <c r="C467" s="2" t="n">
-        <v>43535</v>
+        <v>43507</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E467" t="n">
@@ -10188,11 +10188,11 @@
         </is>
       </c>
       <c r="C468" s="2" t="n">
-        <v>43537</v>
+        <v>43532</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E468" t="n">
@@ -10209,11 +10209,11 @@
         </is>
       </c>
       <c r="C469" s="2" t="n">
-        <v>43559</v>
+        <v>43533</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E469" t="n">
@@ -10230,7 +10230,7 @@
         </is>
       </c>
       <c r="C470" s="2" t="n">
-        <v>43564</v>
+        <v>43535</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -10247,15 +10247,15 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1018</t>
+          <t>Filling 6 Line F6L1017</t>
         </is>
       </c>
       <c r="C471" s="2" t="n">
-        <v>43377</v>
+        <v>43535</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E471" t="n">
@@ -10268,11 +10268,11 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1018</t>
+          <t>Filling 6 Line F6L1017</t>
         </is>
       </c>
       <c r="C472" s="2" t="n">
-        <v>43403</v>
+        <v>43537</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -10289,15 +10289,15 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1018</t>
+          <t>Filling 6 Line F6L1017</t>
         </is>
       </c>
       <c r="C473" s="2" t="n">
-        <v>43405</v>
+        <v>43559</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E473" t="n">
@@ -10310,15 +10310,15 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1018</t>
+          <t>Filling 6 Line F6L1017</t>
         </is>
       </c>
       <c r="C474" s="2" t="n">
-        <v>43411</v>
+        <v>43564</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E474" t="n">
@@ -10335,11 +10335,11 @@
         </is>
       </c>
       <c r="C475" s="2" t="n">
-        <v>43412</v>
+        <v>43377</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E475" t="n">
@@ -10356,11 +10356,11 @@
         </is>
       </c>
       <c r="C476" s="2" t="n">
-        <v>43419</v>
+        <v>43403</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Part hilang</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E476" t="n">
@@ -10377,11 +10377,11 @@
         </is>
       </c>
       <c r="C477" s="2" t="n">
-        <v>43420</v>
+        <v>43405</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E477" t="n">
@@ -10398,11 +10398,11 @@
         </is>
       </c>
       <c r="C478" s="2" t="n">
-        <v>43434</v>
+        <v>43411</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E478" t="n">
@@ -10419,11 +10419,11 @@
         </is>
       </c>
       <c r="C479" s="2" t="n">
-        <v>43437</v>
+        <v>43412</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E479" t="n">
@@ -10440,11 +10440,11 @@
         </is>
       </c>
       <c r="C480" s="2" t="n">
-        <v>43467</v>
+        <v>43419</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part hilang</t>
         </is>
       </c>
       <c r="E480" t="n">
@@ -10461,11 +10461,11 @@
         </is>
       </c>
       <c r="C481" s="2" t="n">
-        <v>43469</v>
+        <v>43420</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Part hilang</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E481" t="n">
@@ -10482,7 +10482,7 @@
         </is>
       </c>
       <c r="C482" s="2" t="n">
-        <v>43524</v>
+        <v>43434</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         </is>
       </c>
       <c r="C483" s="2" t="n">
-        <v>43529</v>
+        <v>43437</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -10524,11 +10524,11 @@
         </is>
       </c>
       <c r="C484" s="2" t="n">
-        <v>43551</v>
+        <v>43467</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E484" t="n">
@@ -10545,11 +10545,11 @@
         </is>
       </c>
       <c r="C485" s="2" t="n">
-        <v>43552</v>
+        <v>43469</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part hilang</t>
         </is>
       </c>
       <c r="E485" t="n">
@@ -10566,7 +10566,7 @@
         </is>
       </c>
       <c r="C486" s="2" t="n">
-        <v>43563</v>
+        <v>43524</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -10587,11 +10587,11 @@
         </is>
       </c>
       <c r="C487" s="2" t="n">
-        <v>43565</v>
+        <v>43529</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E487" t="n">
@@ -10608,7 +10608,7 @@
         </is>
       </c>
       <c r="C488" s="2" t="n">
-        <v>43565</v>
+        <v>43551</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -10629,11 +10629,11 @@
         </is>
       </c>
       <c r="C489" s="2" t="n">
-        <v>43570</v>
+        <v>43552</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E489" t="n">
@@ -10650,7 +10650,7 @@
         </is>
       </c>
       <c r="C490" s="2" t="n">
-        <v>43570</v>
+        <v>43563</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
         </is>
       </c>
       <c r="C491" s="2" t="n">
-        <v>43580</v>
+        <v>43565</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E491" t="n">
@@ -10692,7 +10692,7 @@
         </is>
       </c>
       <c r="C492" s="2" t="n">
-        <v>43593</v>
+        <v>43565</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -10709,15 +10709,15 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1019</t>
+          <t>Filling 6 Line F6L1018</t>
         </is>
       </c>
       <c r="C493" s="2" t="n">
-        <v>43384</v>
+        <v>43570</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E493" t="n">
@@ -10730,11 +10730,11 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1019</t>
+          <t>Filling 6 Line F6L1018</t>
         </is>
       </c>
       <c r="C494" s="2" t="n">
-        <v>43388</v>
+        <v>43570</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -10751,11 +10751,11 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1019</t>
+          <t>Filling 6 Line F6L1018</t>
         </is>
       </c>
       <c r="C495" s="2" t="n">
-        <v>43412</v>
+        <v>43580</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -10772,15 +10772,15 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1019</t>
+          <t>Filling 6 Line F6L1018</t>
         </is>
       </c>
       <c r="C496" s="2" t="n">
-        <v>43434</v>
+        <v>43593</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E496" t="n">
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="C497" s="2" t="n">
-        <v>43437</v>
+        <v>43384</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -10818,11 +10818,11 @@
         </is>
       </c>
       <c r="C498" s="2" t="n">
-        <v>43453</v>
+        <v>43388</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E498" t="n">
@@ -10839,11 +10839,11 @@
         </is>
       </c>
       <c r="C499" s="2" t="n">
-        <v>43468</v>
+        <v>43412</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E499" t="n">
@@ -10860,7 +10860,7 @@
         </is>
       </c>
       <c r="C500" s="2" t="n">
-        <v>43469</v>
+        <v>43434</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         </is>
       </c>
       <c r="C501" s="2" t="n">
-        <v>43473</v>
+        <v>43437</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -10902,11 +10902,11 @@
         </is>
       </c>
       <c r="C502" s="2" t="n">
-        <v>43476</v>
+        <v>43453</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E502" t="n">
@@ -10923,11 +10923,11 @@
         </is>
       </c>
       <c r="C503" s="2" t="n">
-        <v>43510</v>
+        <v>43468</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E503" t="n">
@@ -10944,7 +10944,7 @@
         </is>
       </c>
       <c r="C504" s="2" t="n">
-        <v>43511</v>
+        <v>43469</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         </is>
       </c>
       <c r="C505" s="2" t="n">
-        <v>43525</v>
+        <v>43473</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         </is>
       </c>
       <c r="C506" s="2" t="n">
-        <v>43529</v>
+        <v>43476</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -11007,11 +11007,11 @@
         </is>
       </c>
       <c r="C507" s="2" t="n">
-        <v>43539</v>
+        <v>43510</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E507" t="n">
@@ -11028,7 +11028,7 @@
         </is>
       </c>
       <c r="C508" s="2" t="n">
-        <v>43543</v>
+        <v>43511</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         </is>
       </c>
       <c r="C509" s="2" t="n">
-        <v>43578</v>
+        <v>43525</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         </is>
       </c>
       <c r="C510" s="2" t="n">
-        <v>43580</v>
+        <v>43529</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -11087,11 +11087,11 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1020</t>
+          <t>Filling 6 Line F6L1019</t>
         </is>
       </c>
       <c r="C511" s="2" t="n">
-        <v>43374</v>
+        <v>43539</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -11108,15 +11108,15 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1020</t>
+          <t>Filling 6 Line F6L1019</t>
         </is>
       </c>
       <c r="C512" s="2" t="n">
-        <v>43391</v>
+        <v>43543</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E512" t="n">
@@ -11129,11 +11129,11 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1020</t>
+          <t>Filling 6 Line F6L1019</t>
         </is>
       </c>
       <c r="C513" s="2" t="n">
-        <v>43419</v>
+        <v>43578</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -11150,11 +11150,11 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1020</t>
+          <t>Filling 6 Line F6L1019</t>
         </is>
       </c>
       <c r="C514" s="2" t="n">
-        <v>43420</v>
+        <v>43580</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         </is>
       </c>
       <c r="C515" s="2" t="n">
-        <v>43434</v>
+        <v>43374</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -11196,11 +11196,11 @@
         </is>
       </c>
       <c r="C516" s="2" t="n">
-        <v>43469</v>
+        <v>43391</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E516" t="n">
@@ -11217,7 +11217,7 @@
         </is>
       </c>
       <c r="C517" s="2" t="n">
-        <v>43486</v>
+        <v>43419</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -11238,11 +11238,11 @@
         </is>
       </c>
       <c r="C518" s="2" t="n">
-        <v>43487</v>
+        <v>43420</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E518" t="n">
@@ -11259,11 +11259,11 @@
         </is>
       </c>
       <c r="C519" s="2" t="n">
-        <v>43489</v>
+        <v>43434</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E519" t="n">
@@ -11280,11 +11280,11 @@
         </is>
       </c>
       <c r="C520" s="2" t="n">
-        <v>43504</v>
+        <v>43469</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E520" t="n">
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="C521" s="2" t="n">
-        <v>43515</v>
+        <v>43486</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E521" t="n">
@@ -11322,11 +11322,11 @@
         </is>
       </c>
       <c r="C522" s="2" t="n">
-        <v>43517</v>
+        <v>43487</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E522" t="n">
@@ -11343,11 +11343,11 @@
         </is>
       </c>
       <c r="C523" s="2" t="n">
-        <v>43524</v>
+        <v>43489</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E523" t="n">
@@ -11364,11 +11364,11 @@
         </is>
       </c>
       <c r="C524" s="2" t="n">
-        <v>43553</v>
+        <v>43504</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E524" t="n">
@@ -11385,11 +11385,11 @@
         </is>
       </c>
       <c r="C525" s="2" t="n">
-        <v>43557</v>
+        <v>43515</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>Inspeksi</t>
+          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
         </is>
       </c>
       <c r="E525" t="n">
@@ -11406,7 +11406,7 @@
         </is>
       </c>
       <c r="C526" s="2" t="n">
-        <v>43565</v>
+        <v>43517</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -11423,15 +11423,15 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1001</t>
+          <t>Filling 6 Line F6L1020</t>
         </is>
       </c>
       <c r="C527" s="2" t="n">
-        <v>43397</v>
+        <v>43524</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E527" t="n">
@@ -11444,15 +11444,15 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1001</t>
+          <t>Filling 6 Line F6L1020</t>
         </is>
       </c>
       <c r="C528" s="2" t="n">
-        <v>43507</v>
+        <v>43553</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E528" t="n">
@@ -11465,15 +11465,15 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1001</t>
+          <t>Filling 6 Line F6L1020</t>
         </is>
       </c>
       <c r="C529" s="2" t="n">
-        <v>43507</v>
+        <v>43557</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Inspeksi</t>
         </is>
       </c>
       <c r="E529" t="n">
@@ -11486,11 +11486,11 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1001</t>
+          <t>Filling 6 Line F6L1020</t>
         </is>
       </c>
       <c r="C530" s="2" t="n">
-        <v>43515</v>
+        <v>43565</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -11507,15 +11507,15 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1002</t>
+          <t>Filling Bag FLB1001</t>
         </is>
       </c>
       <c r="C531" s="2" t="n">
-        <v>43431</v>
+        <v>43397</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E531" t="n">
@@ -11528,15 +11528,15 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1002</t>
+          <t>Filling Bag FLB1001</t>
         </is>
       </c>
       <c r="C532" s="2" t="n">
-        <v>43451</v>
+        <v>43507</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E532" t="n">
@@ -11549,15 +11549,15 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1002</t>
+          <t>Filling Bag FLB1001</t>
         </is>
       </c>
       <c r="C533" s="2" t="n">
-        <v>43473</v>
+        <v>43507</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E533" t="n">
@@ -11570,15 +11570,15 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1002</t>
+          <t>Filling Bag FLB1001</t>
         </is>
       </c>
       <c r="C534" s="2" t="n">
-        <v>43479</v>
+        <v>43515</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E534" t="n">
@@ -11595,11 +11595,11 @@
         </is>
       </c>
       <c r="C535" s="2" t="n">
-        <v>43490</v>
+        <v>43431</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E535" t="n">
@@ -11616,7 +11616,7 @@
         </is>
       </c>
       <c r="C536" s="2" t="n">
-        <v>43496</v>
+        <v>43451</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="C537" s="2" t="n">
-        <v>43516</v>
+        <v>43473</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -11658,11 +11658,11 @@
         </is>
       </c>
       <c r="C538" s="2" t="n">
-        <v>43516</v>
+        <v>43479</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E538" t="n">
@@ -11679,7 +11679,7 @@
         </is>
       </c>
       <c r="C539" s="2" t="n">
-        <v>43521</v>
+        <v>43490</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -11700,11 +11700,11 @@
         </is>
       </c>
       <c r="C540" s="2" t="n">
-        <v>43522</v>
+        <v>43496</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E540" t="n">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="C541" s="2" t="n">
-        <v>43523</v>
+        <v>43516</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -11742,11 +11742,11 @@
         </is>
       </c>
       <c r="C542" s="2" t="n">
-        <v>43525</v>
+        <v>43516</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E542" t="n">
@@ -11763,11 +11763,11 @@
         </is>
       </c>
       <c r="C543" s="2" t="n">
-        <v>43543</v>
+        <v>43521</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E543" t="n">
@@ -11784,7 +11784,7 @@
         </is>
       </c>
       <c r="C544" s="2" t="n">
-        <v>43549</v>
+        <v>43522</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -11805,11 +11805,11 @@
         </is>
       </c>
       <c r="C545" s="2" t="n">
-        <v>43549</v>
+        <v>43523</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E545" t="n">
@@ -11826,11 +11826,11 @@
         </is>
       </c>
       <c r="C546" s="2" t="n">
-        <v>43549</v>
+        <v>43525</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E546" t="n">
@@ -11847,11 +11847,11 @@
         </is>
       </c>
       <c r="C547" s="2" t="n">
-        <v>43556</v>
+        <v>43543</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E547" t="n">
@@ -11868,7 +11868,7 @@
         </is>
       </c>
       <c r="C548" s="2" t="n">
-        <v>43557</v>
+        <v>43549</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -11889,11 +11889,11 @@
         </is>
       </c>
       <c r="C549" s="2" t="n">
-        <v>43559</v>
+        <v>43549</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E549" t="n">
@@ -11910,7 +11910,7 @@
         </is>
       </c>
       <c r="C550" s="2" t="n">
-        <v>43563</v>
+        <v>43549</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         </is>
       </c>
       <c r="C551" s="2" t="n">
-        <v>43568</v>
+        <v>43556</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -11952,11 +11952,11 @@
         </is>
       </c>
       <c r="C552" s="2" t="n">
-        <v>43581</v>
+        <v>43557</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E552" t="n">
@@ -11973,7 +11973,7 @@
         </is>
       </c>
       <c r="C553" s="2" t="n">
-        <v>43599</v>
+        <v>43559</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -11994,11 +11994,11 @@
         </is>
       </c>
       <c r="C554" s="2" t="n">
-        <v>43600</v>
+        <v>43563</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E554" t="n">
@@ -12011,11 +12011,11 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Filling Botol FBT1003</t>
+          <t>Filling Bag FLB1002</t>
         </is>
       </c>
       <c r="C555" s="2" t="n">
-        <v>43494</v>
+        <v>43568</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -12032,15 +12032,15 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Filling Botol FBT1003</t>
+          <t>Filling Bag FLB1002</t>
         </is>
       </c>
       <c r="C556" s="2" t="n">
-        <v>43514</v>
+        <v>43581</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E556" t="n">
@@ -12053,11 +12053,11 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Filling Botol FBT1003</t>
+          <t>Filling Bag FLB1002</t>
         </is>
       </c>
       <c r="C557" s="2" t="n">
-        <v>43515</v>
+        <v>43599</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -12074,15 +12074,15 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1001</t>
+          <t>Filling Bag FLB1002</t>
         </is>
       </c>
       <c r="C558" s="2" t="n">
-        <v>43377</v>
+        <v>43600</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E558" t="n">
@@ -12095,11 +12095,11 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1001</t>
+          <t>Filling Botol FBT1003</t>
         </is>
       </c>
       <c r="C559" s="2" t="n">
-        <v>43381</v>
+        <v>43494</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -12116,15 +12116,15 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1001</t>
+          <t>Filling Botol FBT1003</t>
         </is>
       </c>
       <c r="C560" s="2" t="n">
-        <v>43382</v>
+        <v>43514</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E560" t="n">
@@ -12137,15 +12137,15 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1001</t>
+          <t>Filling Botol FBT1003</t>
         </is>
       </c>
       <c r="C561" s="2" t="n">
-        <v>43383</v>
+        <v>43515</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E561" t="n">
@@ -12162,11 +12162,11 @@
         </is>
       </c>
       <c r="C562" s="2" t="n">
-        <v>43402</v>
+        <v>43377</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E562" t="n">
@@ -12183,11 +12183,11 @@
         </is>
       </c>
       <c r="C563" s="2" t="n">
-        <v>43404</v>
+        <v>43381</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>Kurang lubrikasi</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E563" t="n">
@@ -12204,7 +12204,7 @@
         </is>
       </c>
       <c r="C564" s="2" t="n">
-        <v>43406</v>
+        <v>43382</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -12225,11 +12225,11 @@
         </is>
       </c>
       <c r="C565" s="2" t="n">
-        <v>43407</v>
+        <v>43383</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E565" t="n">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="C566" s="2" t="n">
-        <v>43408</v>
+        <v>43402</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -12267,11 +12267,11 @@
         </is>
       </c>
       <c r="C567" s="2" t="n">
-        <v>43409</v>
+        <v>43404</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E567" t="n">
@@ -12288,11 +12288,11 @@
         </is>
       </c>
       <c r="C568" s="2" t="n">
-        <v>43410</v>
+        <v>43406</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E568" t="n">
@@ -12309,7 +12309,7 @@
         </is>
       </c>
       <c r="C569" s="2" t="n">
-        <v>43410</v>
+        <v>43407</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -12330,11 +12330,11 @@
         </is>
       </c>
       <c r="C570" s="2" t="n">
-        <v>43411</v>
+        <v>43408</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E570" t="n">
@@ -12351,11 +12351,11 @@
         </is>
       </c>
       <c r="C571" s="2" t="n">
-        <v>43412</v>
+        <v>43409</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E571" t="n">
@@ -12372,11 +12372,11 @@
         </is>
       </c>
       <c r="C572" s="2" t="n">
-        <v>43413</v>
+        <v>43410</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E572" t="n">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="C573" s="2" t="n">
-        <v>43416</v>
+        <v>43410</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E573" t="n">
@@ -12414,11 +12414,11 @@
         </is>
       </c>
       <c r="C574" s="2" t="n">
-        <v>43417</v>
+        <v>43411</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E574" t="n">
@@ -12435,11 +12435,11 @@
         </is>
       </c>
       <c r="C575" s="2" t="n">
-        <v>43417</v>
+        <v>43412</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E575" t="n">
@@ -12456,7 +12456,7 @@
         </is>
       </c>
       <c r="C576" s="2" t="n">
-        <v>43417</v>
+        <v>43413</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -12477,11 +12477,11 @@
         </is>
       </c>
       <c r="C577" s="2" t="n">
-        <v>43417</v>
+        <v>43416</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E577" t="n">
@@ -12498,11 +12498,11 @@
         </is>
       </c>
       <c r="C578" s="2" t="n">
-        <v>43418</v>
+        <v>43417</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E578" t="n">
@@ -12519,11 +12519,11 @@
         </is>
       </c>
       <c r="C579" s="2" t="n">
-        <v>43418</v>
+        <v>43417</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E579" t="n">
@@ -12540,11 +12540,11 @@
         </is>
       </c>
       <c r="C580" s="2" t="n">
-        <v>43430</v>
+        <v>43417</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E580" t="n">
@@ -12561,11 +12561,11 @@
         </is>
       </c>
       <c r="C581" s="2" t="n">
-        <v>43432</v>
+        <v>43417</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E581" t="n">
@@ -12582,11 +12582,11 @@
         </is>
       </c>
       <c r="C582" s="2" t="n">
-        <v>43439</v>
+        <v>43418</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
         </is>
       </c>
       <c r="E582" t="n">
@@ -12603,11 +12603,11 @@
         </is>
       </c>
       <c r="C583" s="2" t="n">
-        <v>43445</v>
+        <v>43418</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E583" t="n">
@@ -12624,11 +12624,11 @@
         </is>
       </c>
       <c r="C584" s="2" t="n">
-        <v>43446</v>
+        <v>43430</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E584" t="n">
@@ -12645,11 +12645,11 @@
         </is>
       </c>
       <c r="C585" s="2" t="n">
-        <v>43447</v>
+        <v>43432</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E585" t="n">
@@ -12666,7 +12666,7 @@
         </is>
       </c>
       <c r="C586" s="2" t="n">
-        <v>43469</v>
+        <v>43439</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -12687,11 +12687,11 @@
         </is>
       </c>
       <c r="C587" s="2" t="n">
-        <v>43470</v>
+        <v>43445</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E587" t="n">
@@ -12708,11 +12708,11 @@
         </is>
       </c>
       <c r="C588" s="2" t="n">
-        <v>43470</v>
+        <v>43446</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E588" t="n">
@@ -12729,11 +12729,11 @@
         </is>
       </c>
       <c r="C589" s="2" t="n">
-        <v>43472</v>
+        <v>43447</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E589" t="n">
@@ -12750,11 +12750,11 @@
         </is>
       </c>
       <c r="C590" s="2" t="n">
-        <v>43472</v>
+        <v>43469</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>Part hilang</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E590" t="n">
@@ -12771,11 +12771,11 @@
         </is>
       </c>
       <c r="C591" s="2" t="n">
-        <v>43481</v>
+        <v>43470</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>Kurang lubrikasi</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E591" t="n">
@@ -12792,11 +12792,11 @@
         </is>
       </c>
       <c r="C592" s="2" t="n">
-        <v>43488</v>
+        <v>43470</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E592" t="n">
@@ -12813,11 +12813,11 @@
         </is>
       </c>
       <c r="C593" s="2" t="n">
-        <v>43493</v>
+        <v>43472</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E593" t="n">
@@ -12834,11 +12834,11 @@
         </is>
       </c>
       <c r="C594" s="2" t="n">
-        <v>43496</v>
+        <v>43472</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part hilang</t>
         </is>
       </c>
       <c r="E594" t="n">
@@ -12855,11 +12855,11 @@
         </is>
       </c>
       <c r="C595" s="2" t="n">
-        <v>43496</v>
+        <v>43481</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>Kabel tidak terlindungi</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E595" t="n">
@@ -12876,11 +12876,11 @@
         </is>
       </c>
       <c r="C596" s="2" t="n">
-        <v>43502</v>
+        <v>43488</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>Kabel tidak terlindungi</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E596" t="n">
@@ -12897,11 +12897,11 @@
         </is>
       </c>
       <c r="C597" s="2" t="n">
-        <v>43502</v>
+        <v>43493</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E597" t="n">
@@ -12918,11 +12918,11 @@
         </is>
       </c>
       <c r="C598" s="2" t="n">
-        <v>43503</v>
+        <v>43496</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E598" t="n">
@@ -12939,11 +12939,11 @@
         </is>
       </c>
       <c r="C599" s="2" t="n">
-        <v>43507</v>
+        <v>43496</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Kabel tidak terlindungi</t>
         </is>
       </c>
       <c r="E599" t="n">
@@ -12960,11 +12960,11 @@
         </is>
       </c>
       <c r="C600" s="2" t="n">
-        <v>43508</v>
+        <v>43502</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Kabel tidak terlindungi</t>
         </is>
       </c>
       <c r="E600" t="n">
@@ -12981,7 +12981,7 @@
         </is>
       </c>
       <c r="C601" s="2" t="n">
-        <v>43510</v>
+        <v>43502</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -13002,11 +13002,11 @@
         </is>
       </c>
       <c r="C602" s="2" t="n">
-        <v>43514</v>
+        <v>43503</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E602" t="n">
@@ -13023,11 +13023,11 @@
         </is>
       </c>
       <c r="C603" s="2" t="n">
-        <v>43515</v>
+        <v>43507</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E603" t="n">
@@ -13044,11 +13044,11 @@
         </is>
       </c>
       <c r="C604" s="2" t="n">
-        <v>43515</v>
+        <v>43508</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E604" t="n">
@@ -13065,7 +13065,7 @@
         </is>
       </c>
       <c r="C605" s="2" t="n">
-        <v>43516</v>
+        <v>43510</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -13086,11 +13086,11 @@
         </is>
       </c>
       <c r="C606" s="2" t="n">
-        <v>43517</v>
+        <v>43514</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E606" t="n">
@@ -13107,11 +13107,11 @@
         </is>
       </c>
       <c r="C607" s="2" t="n">
-        <v>43521</v>
+        <v>43515</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E607" t="n">
@@ -13128,11 +13128,11 @@
         </is>
       </c>
       <c r="C608" s="2" t="n">
-        <v>43522</v>
+        <v>43515</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E608" t="n">
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="C609" s="2" t="n">
-        <v>43522</v>
+        <v>43516</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         </is>
       </c>
       <c r="C610" s="2" t="n">
-        <v>43524</v>
+        <v>43517</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         </is>
       </c>
       <c r="C611" s="2" t="n">
-        <v>43525</v>
+        <v>43521</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -13212,11 +13212,11 @@
         </is>
       </c>
       <c r="C612" s="2" t="n">
-        <v>43529</v>
+        <v>43522</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E612" t="n">
@@ -13233,7 +13233,7 @@
         </is>
       </c>
       <c r="C613" s="2" t="n">
-        <v>43530</v>
+        <v>43522</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         </is>
       </c>
       <c r="C614" s="2" t="n">
-        <v>43532</v>
+        <v>43524</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         </is>
       </c>
       <c r="C615" s="2" t="n">
-        <v>43532</v>
+        <v>43525</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="C616" s="2" t="n">
-        <v>43537</v>
+        <v>43529</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -13317,11 +13317,11 @@
         </is>
       </c>
       <c r="C617" s="2" t="n">
-        <v>43543</v>
+        <v>43530</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E617" t="n">
@@ -13338,11 +13338,11 @@
         </is>
       </c>
       <c r="C618" s="2" t="n">
-        <v>43544</v>
+        <v>43532</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E618" t="n">
@@ -13359,11 +13359,11 @@
         </is>
       </c>
       <c r="C619" s="2" t="n">
-        <v>43549</v>
+        <v>43532</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E619" t="n">
@@ -13380,7 +13380,7 @@
         </is>
       </c>
       <c r="C620" s="2" t="n">
-        <v>43551</v>
+        <v>43537</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -13401,11 +13401,11 @@
         </is>
       </c>
       <c r="C621" s="2" t="n">
-        <v>43552</v>
+        <v>43543</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E621" t="n">
@@ -13422,7 +13422,7 @@
         </is>
       </c>
       <c r="C622" s="2" t="n">
-        <v>43556</v>
+        <v>43544</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -13443,11 +13443,11 @@
         </is>
       </c>
       <c r="C623" s="2" t="n">
-        <v>43568</v>
+        <v>43549</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E623" t="n">
@@ -13464,7 +13464,7 @@
         </is>
       </c>
       <c r="C624" s="2" t="n">
-        <v>43588</v>
+        <v>43551</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -13481,15 +13481,15 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1002</t>
+          <t>Filling Stickpack FST1001</t>
         </is>
       </c>
       <c r="C625" s="2" t="n">
-        <v>43439</v>
+        <v>43552</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E625" t="n">
@@ -13502,15 +13502,15 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1002</t>
+          <t>Filling Stickpack FST1001</t>
         </is>
       </c>
       <c r="C626" s="2" t="n">
-        <v>43440</v>
+        <v>43556</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E626" t="n">
@@ -13523,15 +13523,15 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1002</t>
+          <t>Filling Stickpack FST1001</t>
         </is>
       </c>
       <c r="C627" s="2" t="n">
-        <v>43444</v>
+        <v>43568</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E627" t="n">
@@ -13544,18 +13544,123 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
+          <t>Filling Stickpack FST1001</t>
+        </is>
+      </c>
+      <c r="C628" s="2" t="n">
+        <v>43588</v>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>Part rusak</t>
+        </is>
+      </c>
+      <c r="E628" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Filling Stickpack FST1001</t>
+        </is>
+      </c>
+      <c r="C629" s="2" t="n">
+        <v>43601</v>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>Pengoperasian tidak normal</t>
+        </is>
+      </c>
+      <c r="E629" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
           <t>Filling Stickpack FST1002</t>
         </is>
       </c>
-      <c r="C628" s="2" t="n">
+      <c r="C630" s="2" t="n">
+        <v>43439</v>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
+        </is>
+      </c>
+      <c r="E630" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Filling Stickpack FST1002</t>
+        </is>
+      </c>
+      <c r="C631" s="2" t="n">
+        <v>43440</v>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
+        </is>
+      </c>
+      <c r="E631" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Filling Stickpack FST1002</t>
+        </is>
+      </c>
+      <c r="C632" s="2" t="n">
+        <v>43444</v>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>Part rusak</t>
+        </is>
+      </c>
+      <c r="E632" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Filling Stickpack FST1002</t>
+        </is>
+      </c>
+      <c r="C633" s="2" t="n">
         <v>43446</v>
       </c>
-      <c r="D628" t="inlineStr">
+      <c r="D633" t="inlineStr">
         <is>
           <t>Part hilang</t>
         </is>
       </c>
-      <c r="E628" t="n">
+      <c r="E633" t="n">
         <v>1</v>
       </c>
     </row>

--- a/output/history.xlsx
+++ b/output/history.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E633"/>
+  <dimension ref="A1:E649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,15 +713,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1001</t>
+          <t>Filling 5 Line F5L1003</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>43382</v>
+        <v>43608</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -738,11 +738,11 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>43409</v>
+        <v>43382</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>43413</v>
+        <v>43409</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>43426</v>
+        <v>43413</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>43432</v>
+        <v>43426</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>43451</v>
+        <v>43432</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -843,11 +843,11 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>43455</v>
+        <v>43451</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -864,11 +864,11 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>43468</v>
+        <v>43455</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -885,11 +885,11 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>43473</v>
+        <v>43468</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -906,11 +906,11 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>43474</v>
+        <v>43473</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Kabel tidak terlindungi</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -931,7 +931,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Kabel tidak terlindungi</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -948,11 +948,11 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>43475</v>
+        <v>43474</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -969,11 +969,11 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>43479</v>
+        <v>43475</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -990,11 +990,11 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>43480</v>
+        <v>43479</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1011,11 +1011,11 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>43486</v>
+        <v>43480</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1053,11 +1053,11 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>43487</v>
+        <v>43486</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>43488</v>
+        <v>43487</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>43490</v>
+        <v>43488</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1137,11 +1137,11 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>43493</v>
+        <v>43490</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1158,11 +1158,11 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>43500</v>
+        <v>43493</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>43502</v>
+        <v>43500</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>43517</v>
+        <v>43502</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>43518</v>
+        <v>43517</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>43529</v>
+        <v>43518</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>43565</v>
+        <v>43529</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1284,11 +1284,11 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>43584</v>
+        <v>43565</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1301,15 +1301,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1002</t>
+          <t>Filling 6 Line F6L1001</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>43375</v>
+        <v>43584</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1322,15 +1322,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1002</t>
+          <t>Filling 6 Line F6L1001</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>43375</v>
+        <v>43606</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1347,11 +1347,11 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>43388</v>
+        <v>43375</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1368,11 +1368,11 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>43402</v>
+        <v>43375</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>43417</v>
+        <v>43388</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1410,11 +1410,11 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>43419</v>
+        <v>43402</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1431,11 +1431,11 @@
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>43420</v>
+        <v>43417</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1452,11 +1452,11 @@
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>43420</v>
+        <v>43419</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1473,11 +1473,11 @@
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>43427</v>
+        <v>43420</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1494,11 +1494,11 @@
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>43453</v>
+        <v>43420</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1515,11 +1515,11 @@
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>43476</v>
+        <v>43427</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1536,11 +1536,11 @@
         </is>
       </c>
       <c r="C56" s="2" t="n">
-        <v>43481</v>
+        <v>43453</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1557,11 +1557,11 @@
         </is>
       </c>
       <c r="C57" s="2" t="n">
-        <v>43489</v>
+        <v>43476</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Kabel tidak terlindungi</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="C58" s="2" t="n">
-        <v>43500</v>
+        <v>43481</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>43500</v>
+        <v>43489</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Kabel tidak terlindungi</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>43536</v>
+        <v>43500</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1641,11 +1641,11 @@
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>43536</v>
+        <v>43500</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -1662,11 +1662,11 @@
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>43543</v>
+        <v>43536</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -1683,11 +1683,11 @@
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>43545</v>
+        <v>43536</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -1704,11 +1704,11 @@
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>43557</v>
+        <v>43543</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -1725,11 +1725,11 @@
         </is>
       </c>
       <c r="C65" s="2" t="n">
-        <v>43570</v>
+        <v>43545</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -1746,11 +1746,11 @@
         </is>
       </c>
       <c r="C66" s="2" t="n">
-        <v>43599</v>
+        <v>43557</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -1767,11 +1767,11 @@
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>43601</v>
+        <v>43570</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Kurang lubrikasi</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -1784,15 +1784,15 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1003</t>
+          <t>Filling 6 Line F6L1002</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>43378</v>
+        <v>43599</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -1805,15 +1805,15 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1003</t>
+          <t>Filling 6 Line F6L1002</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>43381</v>
+        <v>43601</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -1826,15 +1826,15 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1003</t>
+          <t>Filling 6 Line F6L1002</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>43385</v>
+        <v>43603</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -1847,15 +1847,15 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1003</t>
+          <t>Filling 6 Line F6L1002</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
-        <v>43388</v>
+        <v>43605</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>43391</v>
+        <v>43378</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1893,11 +1893,11 @@
         </is>
       </c>
       <c r="C73" s="2" t="n">
-        <v>43392</v>
+        <v>43381</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -1914,11 +1914,11 @@
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>43392</v>
+        <v>43385</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>43395</v>
+        <v>43388</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1956,11 +1956,11 @@
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>43395</v>
+        <v>43391</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -1977,11 +1977,11 @@
         </is>
       </c>
       <c r="C77" s="2" t="n">
-        <v>43395</v>
+        <v>43392</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -1998,11 +1998,11 @@
         </is>
       </c>
       <c r="C78" s="2" t="n">
-        <v>43395</v>
+        <v>43392</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -2040,11 +2040,11 @@
         </is>
       </c>
       <c r="C80" s="2" t="n">
-        <v>43397</v>
+        <v>43395</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -2061,11 +2061,11 @@
         </is>
       </c>
       <c r="C81" s="2" t="n">
-        <v>43398</v>
+        <v>43395</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2082,11 +2082,11 @@
         </is>
       </c>
       <c r="C82" s="2" t="n">
-        <v>43398</v>
+        <v>43395</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="C83" s="2" t="n">
-        <v>43404</v>
+        <v>43395</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="C84" s="2" t="n">
-        <v>43404</v>
+        <v>43397</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="C85" s="2" t="n">
-        <v>43405</v>
+        <v>43398</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2166,11 +2166,11 @@
         </is>
       </c>
       <c r="C86" s="2" t="n">
-        <v>43406</v>
+        <v>43398</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -2187,11 +2187,11 @@
         </is>
       </c>
       <c r="C87" s="2" t="n">
-        <v>43409</v>
+        <v>43404</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="C88" s="2" t="n">
-        <v>43409</v>
+        <v>43404</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2229,11 +2229,11 @@
         </is>
       </c>
       <c r="C89" s="2" t="n">
-        <v>43412</v>
+        <v>43405</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="C90" s="2" t="n">
-        <v>43423</v>
+        <v>43406</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2271,11 +2271,11 @@
         </is>
       </c>
       <c r="C91" s="2" t="n">
-        <v>43472</v>
+        <v>43409</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="C92" s="2" t="n">
-        <v>43473</v>
+        <v>43409</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2313,11 +2313,11 @@
         </is>
       </c>
       <c r="C93" s="2" t="n">
-        <v>43473</v>
+        <v>43412</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Kurang lubrikasi</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -2334,11 +2334,11 @@
         </is>
       </c>
       <c r="C94" s="2" t="n">
-        <v>43474</v>
+        <v>43423</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -2355,11 +2355,11 @@
         </is>
       </c>
       <c r="C95" s="2" t="n">
-        <v>43481</v>
+        <v>43472</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="C96" s="2" t="n">
-        <v>43489</v>
+        <v>43473</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2397,11 +2397,11 @@
         </is>
       </c>
       <c r="C97" s="2" t="n">
-        <v>43495</v>
+        <v>43473</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -2418,11 +2418,11 @@
         </is>
       </c>
       <c r="C98" s="2" t="n">
-        <v>43497</v>
+        <v>43474</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -2439,11 +2439,11 @@
         </is>
       </c>
       <c r="C99" s="2" t="n">
-        <v>43504</v>
+        <v>43481</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="C100" s="2" t="n">
-        <v>43504</v>
+        <v>43489</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="C101" s="2" t="n">
-        <v>43508</v>
+        <v>43495</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2502,11 +2502,11 @@
         </is>
       </c>
       <c r="C102" s="2" t="n">
-        <v>43508</v>
+        <v>43497</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -2523,7 +2523,7 @@
         </is>
       </c>
       <c r="C103" s="2" t="n">
-        <v>43516</v>
+        <v>43504</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="C104" s="2" t="n">
-        <v>43530</v>
+        <v>43504</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2565,11 +2565,11 @@
         </is>
       </c>
       <c r="C105" s="2" t="n">
-        <v>43530</v>
+        <v>43508</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -2586,11 +2586,11 @@
         </is>
       </c>
       <c r="C106" s="2" t="n">
-        <v>43532</v>
+        <v>43508</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -2607,11 +2607,11 @@
         </is>
       </c>
       <c r="C107" s="2" t="n">
-        <v>43544</v>
+        <v>43516</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -2628,11 +2628,11 @@
         </is>
       </c>
       <c r="C108" s="2" t="n">
-        <v>43549</v>
+        <v>43530</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="C109" s="2" t="n">
-        <v>43552</v>
+        <v>43530</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2670,11 +2670,11 @@
         </is>
       </c>
       <c r="C110" s="2" t="n">
-        <v>43560</v>
+        <v>43532</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Part hilang</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -2691,11 +2691,11 @@
         </is>
       </c>
       <c r="C111" s="2" t="n">
-        <v>43566</v>
+        <v>43544</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="C112" s="2" t="n">
-        <v>43568</v>
+        <v>43549</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="C113" s="2" t="n">
-        <v>43577</v>
+        <v>43552</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2754,11 +2754,11 @@
         </is>
       </c>
       <c r="C114" s="2" t="n">
-        <v>43578</v>
+        <v>43560</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part hilang</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="C115" s="2" t="n">
-        <v>43584</v>
+        <v>43566</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2796,11 +2796,11 @@
         </is>
       </c>
       <c r="C116" s="2" t="n">
-        <v>43600</v>
+        <v>43568</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -2817,11 +2817,11 @@
         </is>
       </c>
       <c r="C117" s="2" t="n">
-        <v>43601</v>
+        <v>43577</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -2834,15 +2834,15 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1004</t>
+          <t>Filling 6 Line F6L1003</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
-        <v>43374</v>
+        <v>43578</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -2855,15 +2855,15 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1004</t>
+          <t>Filling 6 Line F6L1003</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
-        <v>43378</v>
+        <v>43584</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -2876,15 +2876,15 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1004</t>
+          <t>Filling 6 Line F6L1003</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
-        <v>43378</v>
+        <v>43600</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -2897,15 +2897,15 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1004</t>
+          <t>Filling 6 Line F6L1003</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
-        <v>43389</v>
+        <v>43601</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -2918,11 +2918,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1004</t>
+          <t>Filling 6 Line F6L1003</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
-        <v>43390</v>
+        <v>43608</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2943,11 +2943,11 @@
         </is>
       </c>
       <c r="C123" s="2" t="n">
-        <v>43390</v>
+        <v>43374</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -2964,11 +2964,11 @@
         </is>
       </c>
       <c r="C124" s="2" t="n">
-        <v>43391</v>
+        <v>43378</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="C125" s="2" t="n">
-        <v>43398</v>
+        <v>43378</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3006,11 +3006,11 @@
         </is>
       </c>
       <c r="C126" s="2" t="n">
-        <v>43398</v>
+        <v>43389</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C127" s="2" t="n">
-        <v>43402</v>
+        <v>43390</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3048,11 +3048,11 @@
         </is>
       </c>
       <c r="C128" s="2" t="n">
-        <v>43406</v>
+        <v>43390</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -3069,11 +3069,11 @@
         </is>
       </c>
       <c r="C129" s="2" t="n">
-        <v>43409</v>
+        <v>43391</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -3090,11 +3090,11 @@
         </is>
       </c>
       <c r="C130" s="2" t="n">
-        <v>43410</v>
+        <v>43398</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -3111,7 +3111,7 @@
         </is>
       </c>
       <c r="C131" s="2" t="n">
-        <v>43411</v>
+        <v>43398</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3132,11 +3132,11 @@
         </is>
       </c>
       <c r="C132" s="2" t="n">
-        <v>43412</v>
+        <v>43402</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -3153,11 +3153,11 @@
         </is>
       </c>
       <c r="C133" s="2" t="n">
-        <v>43413</v>
+        <v>43406</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -3174,11 +3174,11 @@
         </is>
       </c>
       <c r="C134" s="2" t="n">
-        <v>43413</v>
+        <v>43409</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -3195,11 +3195,11 @@
         </is>
       </c>
       <c r="C135" s="2" t="n">
-        <v>43425</v>
+        <v>43410</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -3216,11 +3216,11 @@
         </is>
       </c>
       <c r="C136" s="2" t="n">
-        <v>43427</v>
+        <v>43411</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -3237,11 +3237,11 @@
         </is>
       </c>
       <c r="C137" s="2" t="n">
-        <v>43432</v>
+        <v>43412</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -3258,7 +3258,7 @@
         </is>
       </c>
       <c r="C138" s="2" t="n">
-        <v>43433</v>
+        <v>43413</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3279,11 +3279,11 @@
         </is>
       </c>
       <c r="C139" s="2" t="n">
-        <v>43453</v>
+        <v>43413</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -3300,11 +3300,11 @@
         </is>
       </c>
       <c r="C140" s="2" t="n">
-        <v>43469</v>
+        <v>43425</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -3321,11 +3321,11 @@
         </is>
       </c>
       <c r="C141" s="2" t="n">
-        <v>43472</v>
+        <v>43427</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -3342,11 +3342,11 @@
         </is>
       </c>
       <c r="C142" s="2" t="n">
-        <v>43474</v>
+        <v>43432</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -3363,11 +3363,11 @@
         </is>
       </c>
       <c r="C143" s="2" t="n">
-        <v>43475</v>
+        <v>43433</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -3384,11 +3384,11 @@
         </is>
       </c>
       <c r="C144" s="2" t="n">
-        <v>43480</v>
+        <v>43453</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Kurang lubrikasi</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -3405,7 +3405,7 @@
         </is>
       </c>
       <c r="C145" s="2" t="n">
-        <v>43481</v>
+        <v>43469</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3426,11 +3426,11 @@
         </is>
       </c>
       <c r="C146" s="2" t="n">
-        <v>43481</v>
+        <v>43472</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="C147" s="2" t="n">
-        <v>43508</v>
+        <v>43474</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3468,11 +3468,11 @@
         </is>
       </c>
       <c r="C148" s="2" t="n">
-        <v>43510</v>
+        <v>43475</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -3489,11 +3489,11 @@
         </is>
       </c>
       <c r="C149" s="2" t="n">
-        <v>43511</v>
+        <v>43480</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -3510,7 +3510,7 @@
         </is>
       </c>
       <c r="C150" s="2" t="n">
-        <v>43514</v>
+        <v>43481</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3531,11 +3531,11 @@
         </is>
       </c>
       <c r="C151" s="2" t="n">
-        <v>43521</v>
+        <v>43481</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="C152" s="2" t="n">
-        <v>43524</v>
+        <v>43508</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3573,11 +3573,11 @@
         </is>
       </c>
       <c r="C153" s="2" t="n">
-        <v>43524</v>
+        <v>43510</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -3594,11 +3594,11 @@
         </is>
       </c>
       <c r="C154" s="2" t="n">
-        <v>43528</v>
+        <v>43511</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -3615,11 +3615,11 @@
         </is>
       </c>
       <c r="C155" s="2" t="n">
-        <v>43528</v>
+        <v>43514</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -3636,11 +3636,11 @@
         </is>
       </c>
       <c r="C156" s="2" t="n">
-        <v>43529</v>
+        <v>43521</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -3657,11 +3657,11 @@
         </is>
       </c>
       <c r="C157" s="2" t="n">
-        <v>43566</v>
+        <v>43524</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="C158" s="2" t="n">
-        <v>43595</v>
+        <v>43524</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3695,15 +3695,15 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1005</t>
+          <t>Filling 6 Line F6L1004</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
-        <v>43388</v>
+        <v>43528</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -3716,15 +3716,15 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1005</t>
+          <t>Filling 6 Line F6L1004</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
-        <v>43389</v>
+        <v>43528</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -3737,11 +3737,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1005</t>
+          <t>Filling 6 Line F6L1004</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
-        <v>43399</v>
+        <v>43529</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3758,11 +3758,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1005</t>
+          <t>Filling 6 Line F6L1004</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
-        <v>43402</v>
+        <v>43566</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3779,15 +3779,15 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1005</t>
+          <t>Filling 6 Line F6L1004</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
-        <v>43402</v>
+        <v>43595</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -3804,11 +3804,11 @@
         </is>
       </c>
       <c r="C164" s="2" t="n">
-        <v>43406</v>
+        <v>43388</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -3825,7 +3825,7 @@
         </is>
       </c>
       <c r="C165" s="2" t="n">
-        <v>43410</v>
+        <v>43389</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3846,11 +3846,11 @@
         </is>
       </c>
       <c r="C166" s="2" t="n">
-        <v>43417</v>
+        <v>43399</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -3867,11 +3867,11 @@
         </is>
       </c>
       <c r="C167" s="2" t="n">
-        <v>43418</v>
+        <v>43402</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -3888,11 +3888,11 @@
         </is>
       </c>
       <c r="C168" s="2" t="n">
-        <v>43423</v>
+        <v>43402</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -3909,11 +3909,11 @@
         </is>
       </c>
       <c r="C169" s="2" t="n">
-        <v>43430</v>
+        <v>43406</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="C170" s="2" t="n">
-        <v>43432</v>
+        <v>43410</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3951,11 +3951,11 @@
         </is>
       </c>
       <c r="C171" s="2" t="n">
-        <v>43433</v>
+        <v>43417</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -3972,11 +3972,11 @@
         </is>
       </c>
       <c r="C172" s="2" t="n">
-        <v>43452</v>
+        <v>43418</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="C173" s="2" t="n">
-        <v>43453</v>
+        <v>43423</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4014,11 +4014,11 @@
         </is>
       </c>
       <c r="C174" s="2" t="n">
-        <v>43454</v>
+        <v>43430</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -4035,7 +4035,7 @@
         </is>
       </c>
       <c r="C175" s="2" t="n">
-        <v>43475</v>
+        <v>43432</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="C176" s="2" t="n">
-        <v>43479</v>
+        <v>43433</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -4077,11 +4077,11 @@
         </is>
       </c>
       <c r="C177" s="2" t="n">
-        <v>43482</v>
+        <v>43452</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -4098,11 +4098,11 @@
         </is>
       </c>
       <c r="C178" s="2" t="n">
-        <v>43483</v>
+        <v>43453</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -4119,11 +4119,11 @@
         </is>
       </c>
       <c r="C179" s="2" t="n">
-        <v>43487</v>
+        <v>43454</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -4140,11 +4140,11 @@
         </is>
       </c>
       <c r="C180" s="2" t="n">
-        <v>43490</v>
+        <v>43475</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -4161,11 +4161,11 @@
         </is>
       </c>
       <c r="C181" s="2" t="n">
-        <v>43493</v>
+        <v>43479</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Kurang lubrikasi</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="C182" s="2" t="n">
-        <v>43493</v>
+        <v>43482</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="C183" s="2" t="n">
-        <v>43497</v>
+        <v>43483</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         </is>
       </c>
       <c r="C184" s="2" t="n">
-        <v>43497</v>
+        <v>43487</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -4245,11 +4245,11 @@
         </is>
       </c>
       <c r="C185" s="2" t="n">
-        <v>43500</v>
+        <v>43490</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -4266,11 +4266,11 @@
         </is>
       </c>
       <c r="C186" s="2" t="n">
-        <v>43503</v>
+        <v>43493</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="C187" s="2" t="n">
-        <v>43508</v>
+        <v>43493</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -4308,11 +4308,11 @@
         </is>
       </c>
       <c r="C188" s="2" t="n">
-        <v>43543</v>
+        <v>43497</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -4329,7 +4329,7 @@
         </is>
       </c>
       <c r="C189" s="2" t="n">
-        <v>43544</v>
+        <v>43497</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         </is>
       </c>
       <c r="C190" s="2" t="n">
-        <v>43557</v>
+        <v>43500</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="C191" s="2" t="n">
-        <v>43559</v>
+        <v>43503</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="C192" s="2" t="n">
-        <v>43560</v>
+        <v>43508</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -4413,11 +4413,11 @@
         </is>
       </c>
       <c r="C193" s="2" t="n">
-        <v>43563</v>
+        <v>43543</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -4434,7 +4434,7 @@
         </is>
       </c>
       <c r="C194" s="2" t="n">
-        <v>43566</v>
+        <v>43544</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -4455,11 +4455,11 @@
         </is>
       </c>
       <c r="C195" s="2" t="n">
-        <v>43567</v>
+        <v>43557</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="C196" s="2" t="n">
-        <v>43570</v>
+        <v>43559</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -4497,11 +4497,11 @@
         </is>
       </c>
       <c r="C197" s="2" t="n">
-        <v>43571</v>
+        <v>43560</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -4518,11 +4518,11 @@
         </is>
       </c>
       <c r="C198" s="2" t="n">
-        <v>43577</v>
+        <v>43563</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -4535,15 +4535,15 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1006</t>
+          <t>Filling 6 Line F6L1005</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
-        <v>43395</v>
+        <v>43566</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -4556,11 +4556,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1006</t>
+          <t>Filling 6 Line F6L1005</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
-        <v>43417</v>
+        <v>43567</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4577,15 +4577,15 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1006</t>
+          <t>Filling 6 Line F6L1005</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
-        <v>43431</v>
+        <v>43570</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -4598,15 +4598,15 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1006</t>
+          <t>Filling 6 Line F6L1005</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
-        <v>43432</v>
+        <v>43571</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -4619,15 +4619,15 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1006</t>
+          <t>Filling 6 Line F6L1005</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
-        <v>43472</v>
+        <v>43577</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Part hilang</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -4644,7 +4644,7 @@
         </is>
       </c>
       <c r="C204" s="2" t="n">
-        <v>43472</v>
+        <v>43395</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4665,11 +4665,11 @@
         </is>
       </c>
       <c r="C205" s="2" t="n">
-        <v>43481</v>
+        <v>43417</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -4686,7 +4686,7 @@
         </is>
       </c>
       <c r="C206" s="2" t="n">
-        <v>43481</v>
+        <v>43431</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="C207" s="2" t="n">
-        <v>43482</v>
+        <v>43432</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4728,11 +4728,11 @@
         </is>
       </c>
       <c r="C208" s="2" t="n">
-        <v>43514</v>
+        <v>43472</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part hilang</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -4749,11 +4749,11 @@
         </is>
       </c>
       <c r="C209" s="2" t="n">
-        <v>43521</v>
+        <v>43472</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -4770,11 +4770,11 @@
         </is>
       </c>
       <c r="C210" s="2" t="n">
-        <v>43530</v>
+        <v>43481</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -4791,7 +4791,7 @@
         </is>
       </c>
       <c r="C211" s="2" t="n">
-        <v>43552</v>
+        <v>43481</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="C212" s="2" t="n">
-        <v>43552</v>
+        <v>43482</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         </is>
       </c>
       <c r="C213" s="2" t="n">
-        <v>43558</v>
+        <v>43514</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4854,11 +4854,11 @@
         </is>
       </c>
       <c r="C214" s="2" t="n">
-        <v>43580</v>
+        <v>43521</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -4875,7 +4875,7 @@
         </is>
       </c>
       <c r="C215" s="2" t="n">
-        <v>43584</v>
+        <v>43530</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="C216" s="2" t="n">
-        <v>43588</v>
+        <v>43552</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4917,11 +4917,11 @@
         </is>
       </c>
       <c r="C217" s="2" t="n">
-        <v>43588</v>
+        <v>43552</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="C218" s="2" t="n">
-        <v>43591</v>
+        <v>43558</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4959,11 +4959,11 @@
         </is>
       </c>
       <c r="C219" s="2" t="n">
-        <v>43599</v>
+        <v>43580</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="C220" s="2" t="n">
-        <v>43603</v>
+        <v>43584</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4997,11 +4997,11 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1007</t>
+          <t>Filling 6 Line F6L1006</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
-        <v>43381</v>
+        <v>43588</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -5018,15 +5018,15 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1007</t>
+          <t>Filling 6 Line F6L1006</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
-        <v>43502</v>
+        <v>43588</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Part hilang</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -5039,11 +5039,11 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1007</t>
+          <t>Filling 6 Line F6L1006</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
-        <v>43507</v>
+        <v>43591</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -5060,11 +5060,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1007</t>
+          <t>Filling 6 Line F6L1006</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
-        <v>43510</v>
+        <v>43599</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -5081,15 +5081,15 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1007</t>
+          <t>Filling 6 Line F6L1006</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
-        <v>43516</v>
+        <v>43603</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -5102,11 +5102,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1007</t>
+          <t>Filling 6 Line F6L1006</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
-        <v>43593</v>
+        <v>43607</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
         </is>
       </c>
       <c r="C227" s="2" t="n">
-        <v>43594</v>
+        <v>43381</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -5144,15 +5144,15 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1008</t>
+          <t>Filling 6 Line F6L1007</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
-        <v>43374</v>
+        <v>43502</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part hilang</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -5165,15 +5165,15 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1008</t>
+          <t>Filling 6 Line F6L1007</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
-        <v>43377</v>
+        <v>43507</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -5186,15 +5186,15 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1008</t>
+          <t>Filling 6 Line F6L1007</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
-        <v>43383</v>
+        <v>43510</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -5207,15 +5207,15 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1008</t>
+          <t>Filling 6 Line F6L1007</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
-        <v>43447</v>
+        <v>43516</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -5228,15 +5228,15 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1008</t>
+          <t>Filling 6 Line F6L1007</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
-        <v>43452</v>
+        <v>43593</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -5249,11 +5249,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1008</t>
+          <t>Filling 6 Line F6L1007</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
-        <v>43474</v>
+        <v>43594</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -5274,11 +5274,11 @@
         </is>
       </c>
       <c r="C234" s="2" t="n">
-        <v>43483</v>
+        <v>43374</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Inspeksi</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -5295,7 +5295,7 @@
         </is>
       </c>
       <c r="C235" s="2" t="n">
-        <v>43486</v>
+        <v>43377</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -5316,11 +5316,11 @@
         </is>
       </c>
       <c r="C236" s="2" t="n">
-        <v>43486</v>
+        <v>43383</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -5337,7 +5337,7 @@
         </is>
       </c>
       <c r="C237" s="2" t="n">
-        <v>43486</v>
+        <v>43447</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -5358,11 +5358,11 @@
         </is>
       </c>
       <c r="C238" s="2" t="n">
-        <v>43487</v>
+        <v>43452</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="C239" s="2" t="n">
-        <v>43489</v>
+        <v>43474</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -5400,11 +5400,11 @@
         </is>
       </c>
       <c r="C240" s="2" t="n">
-        <v>43490</v>
+        <v>43483</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Inspeksi</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -5421,11 +5421,11 @@
         </is>
       </c>
       <c r="C241" s="2" t="n">
-        <v>43496</v>
+        <v>43486</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -5442,11 +5442,11 @@
         </is>
       </c>
       <c r="C242" s="2" t="n">
-        <v>43497</v>
+        <v>43486</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -5463,11 +5463,11 @@
         </is>
       </c>
       <c r="C243" s="2" t="n">
-        <v>43602</v>
+        <v>43486</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -5480,15 +5480,15 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1009</t>
+          <t>Filling 6 Line F6L1008</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
-        <v>43377</v>
+        <v>43487</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -5501,15 +5501,15 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1009</t>
+          <t>Filling 6 Line F6L1008</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
-        <v>43378</v>
+        <v>43489</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -5522,15 +5522,15 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1009</t>
+          <t>Filling 6 Line F6L1008</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
-        <v>43426</v>
+        <v>43490</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E246" t="n">
@@ -5543,11 +5543,11 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1009</t>
+          <t>Filling 6 Line F6L1008</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
-        <v>43433</v>
+        <v>43496</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -5564,11 +5564,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1009</t>
+          <t>Filling 6 Line F6L1008</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
-        <v>43434</v>
+        <v>43497</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -5585,15 +5585,15 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1009</t>
+          <t>Filling 6 Line F6L1008</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
-        <v>43438</v>
+        <v>43593</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -5606,15 +5606,15 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1009</t>
+          <t>Filling 6 Line F6L1008</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
-        <v>43441</v>
+        <v>43602</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E250" t="n">
@@ -5631,7 +5631,7 @@
         </is>
       </c>
       <c r="C251" s="2" t="n">
-        <v>43446</v>
+        <v>43377</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="C252" s="2" t="n">
-        <v>43453</v>
+        <v>43378</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -5673,11 +5673,11 @@
         </is>
       </c>
       <c r="C253" s="2" t="n">
-        <v>43475</v>
+        <v>43426</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E253" t="n">
@@ -5694,11 +5694,11 @@
         </is>
       </c>
       <c r="C254" s="2" t="n">
-        <v>43479</v>
+        <v>43433</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E254" t="n">
@@ -5715,11 +5715,11 @@
         </is>
       </c>
       <c r="C255" s="2" t="n">
-        <v>43479</v>
+        <v>43434</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -5736,7 +5736,7 @@
         </is>
       </c>
       <c r="C256" s="2" t="n">
-        <v>43480</v>
+        <v>43438</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5757,11 +5757,11 @@
         </is>
       </c>
       <c r="C257" s="2" t="n">
-        <v>43496</v>
+        <v>43441</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -5778,11 +5778,11 @@
         </is>
       </c>
       <c r="C258" s="2" t="n">
-        <v>43497</v>
+        <v>43446</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E258" t="n">
@@ -5799,11 +5799,11 @@
         </is>
       </c>
       <c r="C259" s="2" t="n">
-        <v>43504</v>
+        <v>43453</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E259" t="n">
@@ -5820,7 +5820,7 @@
         </is>
       </c>
       <c r="C260" s="2" t="n">
-        <v>43507</v>
+        <v>43475</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         </is>
       </c>
       <c r="C261" s="2" t="n">
-        <v>43507</v>
+        <v>43479</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="C262" s="2" t="n">
-        <v>43508</v>
+        <v>43479</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5883,11 +5883,11 @@
         </is>
       </c>
       <c r="C263" s="2" t="n">
-        <v>43508</v>
+        <v>43480</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E263" t="n">
@@ -5904,11 +5904,11 @@
         </is>
       </c>
       <c r="C264" s="2" t="n">
-        <v>43509</v>
+        <v>43496</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E264" t="n">
@@ -5925,7 +5925,7 @@
         </is>
       </c>
       <c r="C265" s="2" t="n">
-        <v>43509</v>
+        <v>43497</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="C266" s="2" t="n">
-        <v>43510</v>
+        <v>43504</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="C267" s="2" t="n">
-        <v>43510</v>
+        <v>43507</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5988,11 +5988,11 @@
         </is>
       </c>
       <c r="C268" s="2" t="n">
-        <v>43514</v>
+        <v>43507</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E268" t="n">
@@ -6009,7 +6009,7 @@
         </is>
       </c>
       <c r="C269" s="2" t="n">
-        <v>43516</v>
+        <v>43508</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -6030,11 +6030,11 @@
         </is>
       </c>
       <c r="C270" s="2" t="n">
-        <v>43518</v>
+        <v>43508</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E270" t="n">
@@ -6051,11 +6051,11 @@
         </is>
       </c>
       <c r="C271" s="2" t="n">
-        <v>43524</v>
+        <v>43509</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E271" t="n">
@@ -6072,11 +6072,11 @@
         </is>
       </c>
       <c r="C272" s="2" t="n">
-        <v>43525</v>
+        <v>43509</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E272" t="n">
@@ -6093,11 +6093,11 @@
         </is>
       </c>
       <c r="C273" s="2" t="n">
-        <v>43535</v>
+        <v>43510</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Kurang lubrikasi</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E273" t="n">
@@ -6114,7 +6114,7 @@
         </is>
       </c>
       <c r="C274" s="2" t="n">
-        <v>43537</v>
+        <v>43510</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         </is>
       </c>
       <c r="C275" s="2" t="n">
-        <v>43545</v>
+        <v>43514</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         </is>
       </c>
       <c r="C276" s="2" t="n">
-        <v>43545</v>
+        <v>43516</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -6177,11 +6177,11 @@
         </is>
       </c>
       <c r="C277" s="2" t="n">
-        <v>43549</v>
+        <v>43518</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E277" t="n">
@@ -6198,7 +6198,7 @@
         </is>
       </c>
       <c r="C278" s="2" t="n">
-        <v>43550</v>
+        <v>43524</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -6219,11 +6219,11 @@
         </is>
       </c>
       <c r="C279" s="2" t="n">
-        <v>43551</v>
+        <v>43525</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E279" t="n">
@@ -6240,11 +6240,11 @@
         </is>
       </c>
       <c r="C280" s="2" t="n">
-        <v>43552</v>
+        <v>43535</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E280" t="n">
@@ -6261,7 +6261,7 @@
         </is>
       </c>
       <c r="C281" s="2" t="n">
-        <v>43556</v>
+        <v>43537</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -6282,11 +6282,11 @@
         </is>
       </c>
       <c r="C282" s="2" t="n">
-        <v>43557</v>
+        <v>43545</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E282" t="n">
@@ -6303,7 +6303,7 @@
         </is>
       </c>
       <c r="C283" s="2" t="n">
-        <v>43559</v>
+        <v>43545</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -6324,11 +6324,11 @@
         </is>
       </c>
       <c r="C284" s="2" t="n">
-        <v>43565</v>
+        <v>43549</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E284" t="n">
@@ -6341,15 +6341,15 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1010</t>
+          <t>Filling 6 Line F6L1009</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
-        <v>43378</v>
+        <v>43550</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E285" t="n">
@@ -6362,11 +6362,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1010</t>
+          <t>Filling 6 Line F6L1009</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
-        <v>43385</v>
+        <v>43551</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -6383,15 +6383,15 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1010</t>
+          <t>Filling 6 Line F6L1009</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
-        <v>43391</v>
+        <v>43552</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E287" t="n">
@@ -6404,11 +6404,11 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1010</t>
+          <t>Filling 6 Line F6L1009</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
-        <v>43419</v>
+        <v>43556</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -6425,15 +6425,15 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1010</t>
+          <t>Filling 6 Line F6L1009</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
-        <v>43421</v>
+        <v>43557</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E289" t="n">
@@ -6446,15 +6446,15 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1010</t>
+          <t>Filling 6 Line F6L1009</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
-        <v>43423</v>
+        <v>43559</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E290" t="n">
@@ -6467,15 +6467,15 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1010</t>
+          <t>Filling 6 Line F6L1009</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
-        <v>43497</v>
+        <v>43565</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E291" t="n">
@@ -6488,15 +6488,15 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1010</t>
+          <t>Filling 6 Line F6L1009</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
-        <v>43497</v>
+        <v>43607</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E292" t="n">
@@ -6513,11 +6513,11 @@
         </is>
       </c>
       <c r="C293" s="2" t="n">
-        <v>43500</v>
+        <v>43378</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E293" t="n">
@@ -6534,11 +6534,11 @@
         </is>
       </c>
       <c r="C294" s="2" t="n">
-        <v>43515</v>
+        <v>43385</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E294" t="n">
@@ -6555,7 +6555,7 @@
         </is>
       </c>
       <c r="C295" s="2" t="n">
-        <v>43516</v>
+        <v>43391</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="C296" s="2" t="n">
-        <v>43525</v>
+        <v>43419</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="C297" s="2" t="n">
-        <v>43532</v>
+        <v>43421</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         </is>
       </c>
       <c r="C298" s="2" t="n">
-        <v>43535</v>
+        <v>43423</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
         </is>
       </c>
       <c r="C299" s="2" t="n">
-        <v>43536</v>
+        <v>43497</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E299" t="n">
@@ -6660,11 +6660,11 @@
         </is>
       </c>
       <c r="C300" s="2" t="n">
-        <v>43556</v>
+        <v>43497</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E300" t="n">
@@ -6681,11 +6681,11 @@
         </is>
       </c>
       <c r="C301" s="2" t="n">
-        <v>43563</v>
+        <v>43500</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E301" t="n">
@@ -6702,11 +6702,11 @@
         </is>
       </c>
       <c r="C302" s="2" t="n">
-        <v>43567</v>
+        <v>43515</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E302" t="n">
@@ -6723,7 +6723,7 @@
         </is>
       </c>
       <c r="C303" s="2" t="n">
-        <v>43594</v>
+        <v>43516</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -6744,11 +6744,11 @@
         </is>
       </c>
       <c r="C304" s="2" t="n">
-        <v>43595</v>
+        <v>43525</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E304" t="n">
@@ -6761,11 +6761,11 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1011</t>
+          <t>Filling 6 Line F6L1010</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
-        <v>43374</v>
+        <v>43532</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -6782,11 +6782,11 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1011</t>
+          <t>Filling 6 Line F6L1010</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
-        <v>43396</v>
+        <v>43535</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -6803,15 +6803,15 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1011</t>
+          <t>Filling 6 Line F6L1010</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
-        <v>43440</v>
+        <v>43536</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E307" t="n">
@@ -6824,11 +6824,11 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1011</t>
+          <t>Filling 6 Line F6L1010</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
-        <v>43448</v>
+        <v>43556</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -6845,15 +6845,15 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1011</t>
+          <t>Filling 6 Line F6L1010</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
-        <v>43460</v>
+        <v>43563</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E309" t="n">
@@ -6866,15 +6866,15 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1011</t>
+          <t>Filling 6 Line F6L1010</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
-        <v>43490</v>
+        <v>43567</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E310" t="n">
@@ -6887,11 +6887,11 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1011</t>
+          <t>Filling 6 Line F6L1010</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
-        <v>43503</v>
+        <v>43594</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6908,15 +6908,15 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1011</t>
+          <t>Filling 6 Line F6L1010</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
-        <v>43509</v>
+        <v>43595</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E312" t="n">
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="C313" s="2" t="n">
-        <v>43509</v>
+        <v>43374</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E313" t="n">
@@ -6954,11 +6954,11 @@
         </is>
       </c>
       <c r="C314" s="2" t="n">
-        <v>43510</v>
+        <v>43396</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E314" t="n">
@@ -6975,7 +6975,7 @@
         </is>
       </c>
       <c r="C315" s="2" t="n">
-        <v>43510</v>
+        <v>43440</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="C316" s="2" t="n">
-        <v>43525</v>
+        <v>43448</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -7017,11 +7017,11 @@
         </is>
       </c>
       <c r="C317" s="2" t="n">
-        <v>43528</v>
+        <v>43460</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
         </is>
       </c>
       <c r="E317" t="n">
@@ -7038,11 +7038,11 @@
         </is>
       </c>
       <c r="C318" s="2" t="n">
-        <v>43552</v>
+        <v>43490</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E318" t="n">
@@ -7059,11 +7059,11 @@
         </is>
       </c>
       <c r="C319" s="2" t="n">
-        <v>43566</v>
+        <v>43503</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E319" t="n">
@@ -7080,7 +7080,7 @@
         </is>
       </c>
       <c r="C320" s="2" t="n">
-        <v>43570</v>
+        <v>43509</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -7101,11 +7101,11 @@
         </is>
       </c>
       <c r="C321" s="2" t="n">
-        <v>43585</v>
+        <v>43509</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E321" t="n">
@@ -7122,11 +7122,11 @@
         </is>
       </c>
       <c r="C322" s="2" t="n">
-        <v>43585</v>
+        <v>43510</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E322" t="n">
@@ -7143,11 +7143,11 @@
         </is>
       </c>
       <c r="C323" s="2" t="n">
-        <v>43588</v>
+        <v>43510</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E323" t="n">
@@ -7164,7 +7164,7 @@
         </is>
       </c>
       <c r="C324" s="2" t="n">
-        <v>43593</v>
+        <v>43525</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -7185,11 +7185,11 @@
         </is>
       </c>
       <c r="C325" s="2" t="n">
-        <v>43593</v>
+        <v>43528</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E325" t="n">
@@ -7202,15 +7202,15 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1012</t>
+          <t>Filling 6 Line F6L1011</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
-        <v>43409</v>
+        <v>43552</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E326" t="n">
@@ -7223,15 +7223,15 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1012</t>
+          <t>Filling 6 Line F6L1011</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
-        <v>43413</v>
+        <v>43566</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E327" t="n">
@@ -7244,11 +7244,11 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1012</t>
+          <t>Filling 6 Line F6L1011</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
-        <v>43433</v>
+        <v>43570</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -7265,11 +7265,11 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1012</t>
+          <t>Filling 6 Line F6L1011</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
-        <v>43440</v>
+        <v>43585</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -7286,15 +7286,15 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1012</t>
+          <t>Filling 6 Line F6L1011</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
-        <v>43444</v>
+        <v>43585</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E330" t="n">
@@ -7307,15 +7307,15 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1012</t>
+          <t>Filling 6 Line F6L1011</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
-        <v>43462</v>
+        <v>43588</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E331" t="n">
@@ -7328,15 +7328,15 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1012</t>
+          <t>Filling 6 Line F6L1011</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
-        <v>43584</v>
+        <v>43593</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E332" t="n">
@@ -7349,11 +7349,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1012</t>
+          <t>Filling 6 Line F6L1011</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
-        <v>43585</v>
+        <v>43593</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -7374,11 +7374,11 @@
         </is>
       </c>
       <c r="C334" s="2" t="n">
-        <v>43588</v>
+        <v>43409</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E334" t="n">
@@ -7395,7 +7395,7 @@
         </is>
       </c>
       <c r="C335" s="2" t="n">
-        <v>43598</v>
+        <v>43413</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -7416,11 +7416,11 @@
         </is>
       </c>
       <c r="C336" s="2" t="n">
-        <v>43599</v>
+        <v>43433</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E336" t="n">
@@ -7437,11 +7437,11 @@
         </is>
       </c>
       <c r="C337" s="2" t="n">
-        <v>43601</v>
+        <v>43440</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E337" t="n">
@@ -7454,15 +7454,15 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1013</t>
+          <t>Filling 6 Line F6L1012</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
-        <v>43374</v>
+        <v>43444</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E338" t="n">
@@ -7475,11 +7475,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1013</t>
+          <t>Filling 6 Line F6L1012</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
-        <v>43376</v>
+        <v>43462</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1013</t>
+          <t>Filling 6 Line F6L1012</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
-        <v>43377</v>
+        <v>43584</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E340" t="n">
@@ -7517,15 +7517,15 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1013</t>
+          <t>Filling 6 Line F6L1012</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
-        <v>43388</v>
+        <v>43585</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E341" t="n">
@@ -7538,15 +7538,15 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1013</t>
+          <t>Filling 6 Line F6L1012</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
-        <v>43397</v>
+        <v>43588</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E342" t="n">
@@ -7559,15 +7559,15 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1013</t>
+          <t>Filling 6 Line F6L1012</t>
         </is>
       </c>
       <c r="C343" s="2" t="n">
-        <v>43406</v>
+        <v>43598</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Part hilang</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E343" t="n">
@@ -7580,15 +7580,15 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1013</t>
+          <t>Filling 6 Line F6L1012</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
-        <v>43417</v>
+        <v>43599</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E344" t="n">
@@ -7601,15 +7601,15 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1013</t>
+          <t>Filling 6 Line F6L1012</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
-        <v>43433</v>
+        <v>43601</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E345" t="n">
@@ -7626,7 +7626,7 @@
         </is>
       </c>
       <c r="C346" s="2" t="n">
-        <v>43433</v>
+        <v>43374</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="C347" s="2" t="n">
-        <v>43438</v>
+        <v>43376</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -7668,11 +7668,11 @@
         </is>
       </c>
       <c r="C348" s="2" t="n">
-        <v>43496</v>
+        <v>43377</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E348" t="n">
@@ -7689,11 +7689,11 @@
         </is>
       </c>
       <c r="C349" s="2" t="n">
-        <v>43507</v>
+        <v>43388</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E349" t="n">
@@ -7710,11 +7710,11 @@
         </is>
       </c>
       <c r="C350" s="2" t="n">
-        <v>43508</v>
+        <v>43397</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E350" t="n">
@@ -7731,11 +7731,11 @@
         </is>
       </c>
       <c r="C351" s="2" t="n">
-        <v>43537</v>
+        <v>43406</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part hilang</t>
         </is>
       </c>
       <c r="E351" t="n">
@@ -7752,11 +7752,11 @@
         </is>
       </c>
       <c r="C352" s="2" t="n">
-        <v>43538</v>
+        <v>43417</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E352" t="n">
@@ -7773,7 +7773,7 @@
         </is>
       </c>
       <c r="C353" s="2" t="n">
-        <v>43538</v>
+        <v>43433</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -7794,11 +7794,11 @@
         </is>
       </c>
       <c r="C354" s="2" t="n">
-        <v>43549</v>
+        <v>43433</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E354" t="n">
@@ -7815,11 +7815,11 @@
         </is>
       </c>
       <c r="C355" s="2" t="n">
-        <v>43550</v>
+        <v>43438</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E355" t="n">
@@ -7836,7 +7836,7 @@
         </is>
       </c>
       <c r="C356" s="2" t="n">
-        <v>43570</v>
+        <v>43496</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -7853,15 +7853,15 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1014</t>
+          <t>Filling 6 Line F6L1013</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
-        <v>43374</v>
+        <v>43507</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E357" t="n">
@@ -7874,15 +7874,15 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1014</t>
+          <t>Filling 6 Line F6L1013</t>
         </is>
       </c>
       <c r="C358" s="2" t="n">
-        <v>43375</v>
+        <v>43508</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E358" t="n">
@@ -7895,15 +7895,15 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1014</t>
+          <t>Filling 6 Line F6L1013</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
-        <v>43395</v>
+        <v>43537</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E359" t="n">
@@ -7916,15 +7916,15 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1014</t>
+          <t>Filling 6 Line F6L1013</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
-        <v>43412</v>
+        <v>43538</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E360" t="n">
@@ -7937,15 +7937,15 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1014</t>
+          <t>Filling 6 Line F6L1013</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
-        <v>43412</v>
+        <v>43538</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E361" t="n">
@@ -7958,15 +7958,15 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1014</t>
+          <t>Filling 6 Line F6L1013</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
-        <v>43416</v>
+        <v>43549</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E362" t="n">
@@ -7979,15 +7979,15 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1014</t>
+          <t>Filling 6 Line F6L1013</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
-        <v>43479</v>
+        <v>43550</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E363" t="n">
@@ -8000,15 +8000,15 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1014</t>
+          <t>Filling 6 Line F6L1013</t>
         </is>
       </c>
       <c r="C364" s="2" t="n">
-        <v>43480</v>
+        <v>43570</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E364" t="n">
@@ -8021,15 +8021,15 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1014</t>
+          <t>Filling 6 Line F6L1013</t>
         </is>
       </c>
       <c r="C365" s="2" t="n">
-        <v>43487</v>
+        <v>43603</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Part hilang</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E365" t="n">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="C366" s="2" t="n">
-        <v>43488</v>
+        <v>43374</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -8067,11 +8067,11 @@
         </is>
       </c>
       <c r="C367" s="2" t="n">
-        <v>43488</v>
+        <v>43375</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E367" t="n">
@@ -8088,7 +8088,7 @@
         </is>
       </c>
       <c r="C368" s="2" t="n">
-        <v>43493</v>
+        <v>43395</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="C369" s="2" t="n">
-        <v>43495</v>
+        <v>43412</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -8130,11 +8130,11 @@
         </is>
       </c>
       <c r="C370" s="2" t="n">
-        <v>43502</v>
+        <v>43412</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
         </is>
       </c>
       <c r="E370" t="n">
@@ -8151,11 +8151,11 @@
         </is>
       </c>
       <c r="C371" s="2" t="n">
-        <v>43502</v>
+        <v>43416</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E371" t="n">
@@ -8172,11 +8172,11 @@
         </is>
       </c>
       <c r="C372" s="2" t="n">
-        <v>43504</v>
+        <v>43479</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E372" t="n">
@@ -8193,11 +8193,11 @@
         </is>
       </c>
       <c r="C373" s="2" t="n">
-        <v>43507</v>
+        <v>43480</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E373" t="n">
@@ -8214,11 +8214,11 @@
         </is>
       </c>
       <c r="C374" s="2" t="n">
-        <v>43508</v>
+        <v>43487</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part hilang</t>
         </is>
       </c>
       <c r="E374" t="n">
@@ -8235,7 +8235,7 @@
         </is>
       </c>
       <c r="C375" s="2" t="n">
-        <v>43508</v>
+        <v>43488</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -8256,11 +8256,11 @@
         </is>
       </c>
       <c r="C376" s="2" t="n">
-        <v>43514</v>
+        <v>43488</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E376" t="n">
@@ -8277,11 +8277,11 @@
         </is>
       </c>
       <c r="C377" s="2" t="n">
-        <v>43528</v>
+        <v>43493</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E377" t="n">
@@ -8298,11 +8298,11 @@
         </is>
       </c>
       <c r="C378" s="2" t="n">
-        <v>43528</v>
+        <v>43495</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E378" t="n">
@@ -8319,7 +8319,7 @@
         </is>
       </c>
       <c r="C379" s="2" t="n">
-        <v>43529</v>
+        <v>43502</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -8340,11 +8340,11 @@
         </is>
       </c>
       <c r="C380" s="2" t="n">
-        <v>43598</v>
+        <v>43502</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E380" t="n">
@@ -8357,11 +8357,11 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1015</t>
+          <t>Filling 6 Line F6L1014</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
-        <v>43377</v>
+        <v>43504</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -8378,11 +8378,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1015</t>
+          <t>Filling 6 Line F6L1014</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
-        <v>43398</v>
+        <v>43507</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -8399,15 +8399,15 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1015</t>
+          <t>Filling 6 Line F6L1014</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
-        <v>43403</v>
+        <v>43508</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E383" t="n">
@@ -8420,15 +8420,15 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1015</t>
+          <t>Filling 6 Line F6L1014</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
-        <v>43409</v>
+        <v>43508</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E384" t="n">
@@ -8441,15 +8441,15 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1015</t>
+          <t>Filling 6 Line F6L1014</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
-        <v>43437</v>
+        <v>43514</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E385" t="n">
@@ -8462,15 +8462,15 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1015</t>
+          <t>Filling 6 Line F6L1014</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
-        <v>43448</v>
+        <v>43528</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E386" t="n">
@@ -8483,15 +8483,15 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1015</t>
+          <t>Filling 6 Line F6L1014</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
-        <v>43451</v>
+        <v>43528</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E387" t="n">
@@ -8504,15 +8504,15 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1015</t>
+          <t>Filling 6 Line F6L1014</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
-        <v>43467</v>
+        <v>43529</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E388" t="n">
@@ -8525,15 +8525,15 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1015</t>
+          <t>Filling 6 Line F6L1014</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
-        <v>43469</v>
+        <v>43598</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E389" t="n">
@@ -8550,11 +8550,11 @@
         </is>
       </c>
       <c r="C390" s="2" t="n">
-        <v>43473</v>
+        <v>43377</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E390" t="n">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="C391" s="2" t="n">
-        <v>43489</v>
+        <v>43398</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -8592,11 +8592,11 @@
         </is>
       </c>
       <c r="C392" s="2" t="n">
-        <v>43515</v>
+        <v>43403</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Part hilang</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E392" t="n">
@@ -8613,11 +8613,11 @@
         </is>
       </c>
       <c r="C393" s="2" t="n">
-        <v>43565</v>
+        <v>43409</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E393" t="n">
@@ -8634,11 +8634,11 @@
         </is>
       </c>
       <c r="C394" s="2" t="n">
-        <v>43570</v>
+        <v>43437</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E394" t="n">
@@ -8655,11 +8655,11 @@
         </is>
       </c>
       <c r="C395" s="2" t="n">
-        <v>43580</v>
+        <v>43448</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Kurang lubrikasi</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E395" t="n">
@@ -8672,15 +8672,15 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1016</t>
+          <t>Filling 6 Line F6L1015</t>
         </is>
       </c>
       <c r="C396" s="2" t="n">
-        <v>43376</v>
+        <v>43451</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
         </is>
       </c>
       <c r="E396" t="n">
@@ -8693,15 +8693,15 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1016</t>
+          <t>Filling 6 Line F6L1015</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
-        <v>43378</v>
+        <v>43467</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E397" t="n">
@@ -8714,11 +8714,11 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1016</t>
+          <t>Filling 6 Line F6L1015</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
-        <v>43395</v>
+        <v>43469</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -8735,15 +8735,15 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1016</t>
+          <t>Filling 6 Line F6L1015</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
-        <v>43397</v>
+        <v>43473</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E399" t="n">
@@ -8756,15 +8756,15 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1016</t>
+          <t>Filling 6 Line F6L1015</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
-        <v>43399</v>
+        <v>43489</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E400" t="n">
@@ -8777,15 +8777,15 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1016</t>
+          <t>Filling 6 Line F6L1015</t>
         </is>
       </c>
       <c r="C401" s="2" t="n">
-        <v>43416</v>
+        <v>43515</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part hilang</t>
         </is>
       </c>
       <c r="E401" t="n">
@@ -8798,11 +8798,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1016</t>
+          <t>Filling 6 Line F6L1015</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
-        <v>43417</v>
+        <v>43565</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -8819,11 +8819,11 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1016</t>
+          <t>Filling 6 Line F6L1015</t>
         </is>
       </c>
       <c r="C403" s="2" t="n">
-        <v>43417</v>
+        <v>43570</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -8840,15 +8840,15 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1016</t>
+          <t>Filling 6 Line F6L1015</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
-        <v>43419</v>
+        <v>43580</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E404" t="n">
@@ -8865,11 +8865,11 @@
         </is>
       </c>
       <c r="C405" s="2" t="n">
-        <v>43434</v>
+        <v>43376</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E405" t="n">
@@ -8886,11 +8886,11 @@
         </is>
       </c>
       <c r="C406" s="2" t="n">
-        <v>43434</v>
+        <v>43378</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E406" t="n">
@@ -8907,7 +8907,7 @@
         </is>
       </c>
       <c r="C407" s="2" t="n">
-        <v>43434</v>
+        <v>43395</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -8928,11 +8928,11 @@
         </is>
       </c>
       <c r="C408" s="2" t="n">
-        <v>43446</v>
+        <v>43397</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E408" t="n">
@@ -8949,11 +8949,11 @@
         </is>
       </c>
       <c r="C409" s="2" t="n">
-        <v>43447</v>
+        <v>43399</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E409" t="n">
@@ -8970,7 +8970,7 @@
         </is>
       </c>
       <c r="C410" s="2" t="n">
-        <v>43451</v>
+        <v>43416</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         </is>
       </c>
       <c r="C411" s="2" t="n">
-        <v>43452</v>
+        <v>43417</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -9012,11 +9012,11 @@
         </is>
       </c>
       <c r="C412" s="2" t="n">
-        <v>43454</v>
+        <v>43417</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E412" t="n">
@@ -9033,7 +9033,7 @@
         </is>
       </c>
       <c r="C413" s="2" t="n">
-        <v>43467</v>
+        <v>43419</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -9054,11 +9054,11 @@
         </is>
       </c>
       <c r="C414" s="2" t="n">
-        <v>43468</v>
+        <v>43434</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E414" t="n">
@@ -9075,11 +9075,11 @@
         </is>
       </c>
       <c r="C415" s="2" t="n">
-        <v>43473</v>
+        <v>43434</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E415" t="n">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="C416" s="2" t="n">
-        <v>43475</v>
+        <v>43434</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -9117,11 +9117,11 @@
         </is>
       </c>
       <c r="C417" s="2" t="n">
-        <v>43476</v>
+        <v>43446</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E417" t="n">
@@ -9138,7 +9138,7 @@
         </is>
       </c>
       <c r="C418" s="2" t="n">
-        <v>43479</v>
+        <v>43447</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -9159,11 +9159,11 @@
         </is>
       </c>
       <c r="C419" s="2" t="n">
-        <v>43480</v>
+        <v>43451</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E419" t="n">
@@ -9180,11 +9180,11 @@
         </is>
       </c>
       <c r="C420" s="2" t="n">
-        <v>43481</v>
+        <v>43452</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E420" t="n">
@@ -9201,11 +9201,11 @@
         </is>
       </c>
       <c r="C421" s="2" t="n">
-        <v>43481</v>
+        <v>43454</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E421" t="n">
@@ -9222,11 +9222,11 @@
         </is>
       </c>
       <c r="C422" s="2" t="n">
-        <v>43488</v>
+        <v>43467</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E422" t="n">
@@ -9243,7 +9243,7 @@
         </is>
       </c>
       <c r="C423" s="2" t="n">
-        <v>43490</v>
+        <v>43468</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -9264,11 +9264,11 @@
         </is>
       </c>
       <c r="C424" s="2" t="n">
-        <v>43494</v>
+        <v>43473</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E424" t="n">
@@ -9285,11 +9285,11 @@
         </is>
       </c>
       <c r="C425" s="2" t="n">
-        <v>43495</v>
+        <v>43475</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E425" t="n">
@@ -9306,11 +9306,11 @@
         </is>
       </c>
       <c r="C426" s="2" t="n">
-        <v>43504</v>
+        <v>43476</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E426" t="n">
@@ -9327,11 +9327,11 @@
         </is>
       </c>
       <c r="C427" s="2" t="n">
-        <v>43508</v>
+        <v>43479</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E427" t="n">
@@ -9348,11 +9348,11 @@
         </is>
       </c>
       <c r="C428" s="2" t="n">
-        <v>43514</v>
+        <v>43480</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E428" t="n">
@@ -9369,7 +9369,7 @@
         </is>
       </c>
       <c r="C429" s="2" t="n">
-        <v>43515</v>
+        <v>43481</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -9390,11 +9390,11 @@
         </is>
       </c>
       <c r="C430" s="2" t="n">
-        <v>43517</v>
+        <v>43481</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E430" t="n">
@@ -9411,11 +9411,11 @@
         </is>
       </c>
       <c r="C431" s="2" t="n">
-        <v>43523</v>
+        <v>43488</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E431" t="n">
@@ -9432,11 +9432,11 @@
         </is>
       </c>
       <c r="C432" s="2" t="n">
-        <v>43523</v>
+        <v>43490</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E432" t="n">
@@ -9453,11 +9453,11 @@
         </is>
       </c>
       <c r="C433" s="2" t="n">
-        <v>43523</v>
+        <v>43494</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E433" t="n">
@@ -9474,7 +9474,7 @@
         </is>
       </c>
       <c r="C434" s="2" t="n">
-        <v>43538</v>
+        <v>43495</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -9495,11 +9495,11 @@
         </is>
       </c>
       <c r="C435" s="2" t="n">
-        <v>43539</v>
+        <v>43504</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E435" t="n">
@@ -9516,7 +9516,7 @@
         </is>
       </c>
       <c r="C436" s="2" t="n">
-        <v>43544</v>
+        <v>43508</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -9537,11 +9537,11 @@
         </is>
       </c>
       <c r="C437" s="2" t="n">
-        <v>43545</v>
+        <v>43514</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E437" t="n">
@@ -9558,7 +9558,7 @@
         </is>
       </c>
       <c r="C438" s="2" t="n">
-        <v>43546</v>
+        <v>43515</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -9579,11 +9579,11 @@
         </is>
       </c>
       <c r="C439" s="2" t="n">
-        <v>43551</v>
+        <v>43517</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E439" t="n">
@@ -9600,11 +9600,11 @@
         </is>
       </c>
       <c r="C440" s="2" t="n">
-        <v>43553</v>
+        <v>43523</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E440" t="n">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="C441" s="2" t="n">
-        <v>43556</v>
+        <v>43523</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         </is>
       </c>
       <c r="C442" s="2" t="n">
-        <v>43559</v>
+        <v>43523</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         </is>
       </c>
       <c r="C443" s="2" t="n">
-        <v>43571</v>
+        <v>43538</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -9684,11 +9684,11 @@
         </is>
       </c>
       <c r="C444" s="2" t="n">
-        <v>43578</v>
+        <v>43539</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E444" t="n">
@@ -9705,11 +9705,11 @@
         </is>
       </c>
       <c r="C445" s="2" t="n">
-        <v>43580</v>
+        <v>43544</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Kurang lubrikasi</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E445" t="n">
@@ -9726,7 +9726,7 @@
         </is>
       </c>
       <c r="C446" s="2" t="n">
-        <v>43585</v>
+        <v>43545</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -9747,11 +9747,11 @@
         </is>
       </c>
       <c r="C447" s="2" t="n">
-        <v>43587</v>
+        <v>43546</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E447" t="n">
@@ -9768,7 +9768,7 @@
         </is>
       </c>
       <c r="C448" s="2" t="n">
-        <v>43591</v>
+        <v>43551</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         </is>
       </c>
       <c r="C449" s="2" t="n">
-        <v>43598</v>
+        <v>43553</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -9806,15 +9806,15 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1017</t>
+          <t>Filling 6 Line F6L1016</t>
         </is>
       </c>
       <c r="C450" s="2" t="n">
-        <v>43374</v>
+        <v>43556</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Kabel tidak terlindungi</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E450" t="n">
@@ -9827,11 +9827,11 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1017</t>
+          <t>Filling 6 Line F6L1016</t>
         </is>
       </c>
       <c r="C451" s="2" t="n">
-        <v>43375</v>
+        <v>43559</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -9848,11 +9848,11 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1017</t>
+          <t>Filling 6 Line F6L1016</t>
         </is>
       </c>
       <c r="C452" s="2" t="n">
-        <v>43383</v>
+        <v>43571</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -9869,11 +9869,11 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1017</t>
+          <t>Filling 6 Line F6L1016</t>
         </is>
       </c>
       <c r="C453" s="2" t="n">
-        <v>43388</v>
+        <v>43578</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -9890,15 +9890,15 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1017</t>
+          <t>Filling 6 Line F6L1016</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
-        <v>43389</v>
+        <v>43580</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E454" t="n">
@@ -9911,11 +9911,11 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1017</t>
+          <t>Filling 6 Line F6L1016</t>
         </is>
       </c>
       <c r="C455" s="2" t="n">
-        <v>43389</v>
+        <v>43585</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -9932,15 +9932,15 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1017</t>
+          <t>Filling 6 Line F6L1016</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
-        <v>43391</v>
+        <v>43587</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E456" t="n">
@@ -9953,15 +9953,15 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1017</t>
+          <t>Filling 6 Line F6L1016</t>
         </is>
       </c>
       <c r="C457" s="2" t="n">
-        <v>43395</v>
+        <v>43591</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Kurang lubrikasi</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E457" t="n">
@@ -9974,11 +9974,11 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1017</t>
+          <t>Filling 6 Line F6L1016</t>
         </is>
       </c>
       <c r="C458" s="2" t="n">
-        <v>43406</v>
+        <v>43598</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -9995,15 +9995,15 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1017</t>
+          <t>Filling 6 Line F6L1016</t>
         </is>
       </c>
       <c r="C459" s="2" t="n">
-        <v>43409</v>
+        <v>43607</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part hilang</t>
         </is>
       </c>
       <c r="E459" t="n">
@@ -10020,11 +10020,11 @@
         </is>
       </c>
       <c r="C460" s="2" t="n">
-        <v>43416</v>
+        <v>43374</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Kabel tidak terlindungi</t>
         </is>
       </c>
       <c r="E460" t="n">
@@ -10041,11 +10041,11 @@
         </is>
       </c>
       <c r="C461" s="2" t="n">
-        <v>43427</v>
+        <v>43375</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E461" t="n">
@@ -10062,11 +10062,11 @@
         </is>
       </c>
       <c r="C462" s="2" t="n">
-        <v>43488</v>
+        <v>43383</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E462" t="n">
@@ -10083,11 +10083,11 @@
         </is>
       </c>
       <c r="C463" s="2" t="n">
-        <v>43489</v>
+        <v>43388</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E463" t="n">
@@ -10104,11 +10104,11 @@
         </is>
       </c>
       <c r="C464" s="2" t="n">
-        <v>43489</v>
+        <v>43389</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E464" t="n">
@@ -10125,11 +10125,11 @@
         </is>
       </c>
       <c r="C465" s="2" t="n">
-        <v>43493</v>
+        <v>43389</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E465" t="n">
@@ -10146,11 +10146,11 @@
         </is>
       </c>
       <c r="C466" s="2" t="n">
-        <v>43493</v>
+        <v>43391</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E466" t="n">
@@ -10167,11 +10167,11 @@
         </is>
       </c>
       <c r="C467" s="2" t="n">
-        <v>43507</v>
+        <v>43395</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E467" t="n">
@@ -10188,7 +10188,7 @@
         </is>
       </c>
       <c r="C468" s="2" t="n">
-        <v>43532</v>
+        <v>43406</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         </is>
       </c>
       <c r="C469" s="2" t="n">
-        <v>43533</v>
+        <v>43409</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -10230,11 +10230,11 @@
         </is>
       </c>
       <c r="C470" s="2" t="n">
-        <v>43535</v>
+        <v>43416</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E470" t="n">
@@ -10251,11 +10251,11 @@
         </is>
       </c>
       <c r="C471" s="2" t="n">
-        <v>43535</v>
+        <v>43427</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E471" t="n">
@@ -10272,7 +10272,7 @@
         </is>
       </c>
       <c r="C472" s="2" t="n">
-        <v>43537</v>
+        <v>43488</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -10293,11 +10293,11 @@
         </is>
       </c>
       <c r="C473" s="2" t="n">
-        <v>43559</v>
+        <v>43489</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E473" t="n">
@@ -10314,11 +10314,11 @@
         </is>
       </c>
       <c r="C474" s="2" t="n">
-        <v>43564</v>
+        <v>43489</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E474" t="n">
@@ -10331,15 +10331,15 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1018</t>
+          <t>Filling 6 Line F6L1017</t>
         </is>
       </c>
       <c r="C475" s="2" t="n">
-        <v>43377</v>
+        <v>43493</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E475" t="n">
@@ -10352,11 +10352,11 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1018</t>
+          <t>Filling 6 Line F6L1017</t>
         </is>
       </c>
       <c r="C476" s="2" t="n">
-        <v>43403</v>
+        <v>43493</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -10373,15 +10373,15 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1018</t>
+          <t>Filling 6 Line F6L1017</t>
         </is>
       </c>
       <c r="C477" s="2" t="n">
-        <v>43405</v>
+        <v>43507</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E477" t="n">
@@ -10394,15 +10394,15 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1018</t>
+          <t>Filling 6 Line F6L1017</t>
         </is>
       </c>
       <c r="C478" s="2" t="n">
-        <v>43411</v>
+        <v>43532</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E478" t="n">
@@ -10415,15 +10415,15 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1018</t>
+          <t>Filling 6 Line F6L1017</t>
         </is>
       </c>
       <c r="C479" s="2" t="n">
-        <v>43412</v>
+        <v>43533</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E479" t="n">
@@ -10436,15 +10436,15 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1018</t>
+          <t>Filling 6 Line F6L1017</t>
         </is>
       </c>
       <c r="C480" s="2" t="n">
-        <v>43419</v>
+        <v>43535</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Part hilang</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E480" t="n">
@@ -10457,15 +10457,15 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1018</t>
+          <t>Filling 6 Line F6L1017</t>
         </is>
       </c>
       <c r="C481" s="2" t="n">
-        <v>43420</v>
+        <v>43535</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E481" t="n">
@@ -10478,11 +10478,11 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1018</t>
+          <t>Filling 6 Line F6L1017</t>
         </is>
       </c>
       <c r="C482" s="2" t="n">
-        <v>43434</v>
+        <v>43537</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -10499,11 +10499,11 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1018</t>
+          <t>Filling 6 Line F6L1017</t>
         </is>
       </c>
       <c r="C483" s="2" t="n">
-        <v>43437</v>
+        <v>43559</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -10520,15 +10520,15 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1018</t>
+          <t>Filling 6 Line F6L1017</t>
         </is>
       </c>
       <c r="C484" s="2" t="n">
-        <v>43467</v>
+        <v>43564</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E484" t="n">
@@ -10541,15 +10541,15 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1018</t>
+          <t>Filling 6 Line F6L1017</t>
         </is>
       </c>
       <c r="C485" s="2" t="n">
-        <v>43469</v>
+        <v>43602</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Part hilang</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E485" t="n">
@@ -10562,15 +10562,15 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1018</t>
+          <t>Filling 6 Line F6L1017</t>
         </is>
       </c>
       <c r="C486" s="2" t="n">
-        <v>43524</v>
+        <v>43607</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E486" t="n">
@@ -10587,7 +10587,7 @@
         </is>
       </c>
       <c r="C487" s="2" t="n">
-        <v>43529</v>
+        <v>43377</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -10608,11 +10608,11 @@
         </is>
       </c>
       <c r="C488" s="2" t="n">
-        <v>43551</v>
+        <v>43403</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E488" t="n">
@@ -10629,11 +10629,11 @@
         </is>
       </c>
       <c r="C489" s="2" t="n">
-        <v>43552</v>
+        <v>43405</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E489" t="n">
@@ -10650,11 +10650,11 @@
         </is>
       </c>
       <c r="C490" s="2" t="n">
-        <v>43563</v>
+        <v>43411</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E490" t="n">
@@ -10671,11 +10671,11 @@
         </is>
       </c>
       <c r="C491" s="2" t="n">
-        <v>43565</v>
+        <v>43412</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E491" t="n">
@@ -10692,11 +10692,11 @@
         </is>
       </c>
       <c r="C492" s="2" t="n">
-        <v>43565</v>
+        <v>43419</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part hilang</t>
         </is>
       </c>
       <c r="E492" t="n">
@@ -10713,7 +10713,7 @@
         </is>
       </c>
       <c r="C493" s="2" t="n">
-        <v>43570</v>
+        <v>43420</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         </is>
       </c>
       <c r="C494" s="2" t="n">
-        <v>43570</v>
+        <v>43434</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         </is>
       </c>
       <c r="C495" s="2" t="n">
-        <v>43580</v>
+        <v>43437</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -10776,11 +10776,11 @@
         </is>
       </c>
       <c r="C496" s="2" t="n">
-        <v>43593</v>
+        <v>43467</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E496" t="n">
@@ -10793,15 +10793,15 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1019</t>
+          <t>Filling 6 Line F6L1018</t>
         </is>
       </c>
       <c r="C497" s="2" t="n">
-        <v>43384</v>
+        <v>43469</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part hilang</t>
         </is>
       </c>
       <c r="E497" t="n">
@@ -10814,11 +10814,11 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1019</t>
+          <t>Filling 6 Line F6L1018</t>
         </is>
       </c>
       <c r="C498" s="2" t="n">
-        <v>43388</v>
+        <v>43524</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -10835,11 +10835,11 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1019</t>
+          <t>Filling 6 Line F6L1018</t>
         </is>
       </c>
       <c r="C499" s="2" t="n">
-        <v>43412</v>
+        <v>43529</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -10856,15 +10856,15 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1019</t>
+          <t>Filling 6 Line F6L1018</t>
         </is>
       </c>
       <c r="C500" s="2" t="n">
-        <v>43434</v>
+        <v>43551</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E500" t="n">
@@ -10877,11 +10877,11 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1019</t>
+          <t>Filling 6 Line F6L1018</t>
         </is>
       </c>
       <c r="C501" s="2" t="n">
-        <v>43437</v>
+        <v>43552</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -10898,15 +10898,15 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1019</t>
+          <t>Filling 6 Line F6L1018</t>
         </is>
       </c>
       <c r="C502" s="2" t="n">
-        <v>43453</v>
+        <v>43563</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E502" t="n">
@@ -10919,15 +10919,15 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1019</t>
+          <t>Filling 6 Line F6L1018</t>
         </is>
       </c>
       <c r="C503" s="2" t="n">
-        <v>43468</v>
+        <v>43565</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E503" t="n">
@@ -10940,15 +10940,15 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1019</t>
+          <t>Filling 6 Line F6L1018</t>
         </is>
       </c>
       <c r="C504" s="2" t="n">
-        <v>43469</v>
+        <v>43565</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E504" t="n">
@@ -10961,15 +10961,15 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1019</t>
+          <t>Filling 6 Line F6L1018</t>
         </is>
       </c>
       <c r="C505" s="2" t="n">
-        <v>43473</v>
+        <v>43570</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E505" t="n">
@@ -10982,11 +10982,11 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1019</t>
+          <t>Filling 6 Line F6L1018</t>
         </is>
       </c>
       <c r="C506" s="2" t="n">
-        <v>43476</v>
+        <v>43570</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -11003,15 +11003,15 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1019</t>
+          <t>Filling 6 Line F6L1018</t>
         </is>
       </c>
       <c r="C507" s="2" t="n">
-        <v>43510</v>
+        <v>43580</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E507" t="n">
@@ -11024,15 +11024,15 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1019</t>
+          <t>Filling 6 Line F6L1018</t>
         </is>
       </c>
       <c r="C508" s="2" t="n">
-        <v>43511</v>
+        <v>43593</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E508" t="n">
@@ -11045,11 +11045,11 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1019</t>
+          <t>Filling 6 Line F6L1018</t>
         </is>
       </c>
       <c r="C509" s="2" t="n">
-        <v>43525</v>
+        <v>43607</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         </is>
       </c>
       <c r="C510" s="2" t="n">
-        <v>43529</v>
+        <v>43384</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         </is>
       </c>
       <c r="C511" s="2" t="n">
-        <v>43539</v>
+        <v>43388</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         </is>
       </c>
       <c r="C512" s="2" t="n">
-        <v>43543</v>
+        <v>43412</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="C513" s="2" t="n">
-        <v>43578</v>
+        <v>43434</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         </is>
       </c>
       <c r="C514" s="2" t="n">
-        <v>43580</v>
+        <v>43437</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -11171,15 +11171,15 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1020</t>
+          <t>Filling 6 Line F6L1019</t>
         </is>
       </c>
       <c r="C515" s="2" t="n">
-        <v>43374</v>
+        <v>43453</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E515" t="n">
@@ -11192,15 +11192,15 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1020</t>
+          <t>Filling 6 Line F6L1019</t>
         </is>
       </c>
       <c r="C516" s="2" t="n">
-        <v>43391</v>
+        <v>43468</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E516" t="n">
@@ -11213,11 +11213,11 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1020</t>
+          <t>Filling 6 Line F6L1019</t>
         </is>
       </c>
       <c r="C517" s="2" t="n">
-        <v>43419</v>
+        <v>43469</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -11234,11 +11234,11 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1020</t>
+          <t>Filling 6 Line F6L1019</t>
         </is>
       </c>
       <c r="C518" s="2" t="n">
-        <v>43420</v>
+        <v>43473</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -11255,11 +11255,11 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1020</t>
+          <t>Filling 6 Line F6L1019</t>
         </is>
       </c>
       <c r="C519" s="2" t="n">
-        <v>43434</v>
+        <v>43476</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -11276,15 +11276,15 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1020</t>
+          <t>Filling 6 Line F6L1019</t>
         </is>
       </c>
       <c r="C520" s="2" t="n">
-        <v>43469</v>
+        <v>43510</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E520" t="n">
@@ -11297,11 +11297,11 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1020</t>
+          <t>Filling 6 Line F6L1019</t>
         </is>
       </c>
       <c r="C521" s="2" t="n">
-        <v>43486</v>
+        <v>43511</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -11318,15 +11318,15 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1020</t>
+          <t>Filling 6 Line F6L1019</t>
         </is>
       </c>
       <c r="C522" s="2" t="n">
-        <v>43487</v>
+        <v>43525</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E522" t="n">
@@ -11339,15 +11339,15 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1020</t>
+          <t>Filling 6 Line F6L1019</t>
         </is>
       </c>
       <c r="C523" s="2" t="n">
-        <v>43489</v>
+        <v>43529</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E523" t="n">
@@ -11360,15 +11360,15 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1020</t>
+          <t>Filling 6 Line F6L1019</t>
         </is>
       </c>
       <c r="C524" s="2" t="n">
-        <v>43504</v>
+        <v>43539</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E524" t="n">
@@ -11381,15 +11381,15 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1020</t>
+          <t>Filling 6 Line F6L1019</t>
         </is>
       </c>
       <c r="C525" s="2" t="n">
-        <v>43515</v>
+        <v>43543</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E525" t="n">
@@ -11402,11 +11402,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1020</t>
+          <t>Filling 6 Line F6L1019</t>
         </is>
       </c>
       <c r="C526" s="2" t="n">
-        <v>43517</v>
+        <v>43578</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -11423,15 +11423,15 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1020</t>
+          <t>Filling 6 Line F6L1019</t>
         </is>
       </c>
       <c r="C527" s="2" t="n">
-        <v>43524</v>
+        <v>43580</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E527" t="n">
@@ -11444,15 +11444,15 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Filling 6 Line F6L1020</t>
+          <t>Filling 6 Line F6L1019</t>
         </is>
       </c>
       <c r="C528" s="2" t="n">
-        <v>43553</v>
+        <v>43607</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E528" t="n">
@@ -11469,11 +11469,11 @@
         </is>
       </c>
       <c r="C529" s="2" t="n">
-        <v>43557</v>
+        <v>43374</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>Inspeksi</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E529" t="n">
@@ -11490,11 +11490,11 @@
         </is>
       </c>
       <c r="C530" s="2" t="n">
-        <v>43565</v>
+        <v>43391</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E530" t="n">
@@ -11507,11 +11507,11 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1001</t>
+          <t>Filling 6 Line F6L1020</t>
         </is>
       </c>
       <c r="C531" s="2" t="n">
-        <v>43397</v>
+        <v>43419</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -11528,15 +11528,15 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1001</t>
+          <t>Filling 6 Line F6L1020</t>
         </is>
       </c>
       <c r="C532" s="2" t="n">
-        <v>43507</v>
+        <v>43420</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E532" t="n">
@@ -11549,11 +11549,11 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1001</t>
+          <t>Filling 6 Line F6L1020</t>
         </is>
       </c>
       <c r="C533" s="2" t="n">
-        <v>43507</v>
+        <v>43434</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -11570,15 +11570,15 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1001</t>
+          <t>Filling 6 Line F6L1020</t>
         </is>
       </c>
       <c r="C534" s="2" t="n">
-        <v>43515</v>
+        <v>43469</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E534" t="n">
@@ -11591,15 +11591,15 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1002</t>
+          <t>Filling 6 Line F6L1020</t>
         </is>
       </c>
       <c r="C535" s="2" t="n">
-        <v>43431</v>
+        <v>43486</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E535" t="n">
@@ -11612,15 +11612,15 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1002</t>
+          <t>Filling 6 Line F6L1020</t>
         </is>
       </c>
       <c r="C536" s="2" t="n">
-        <v>43451</v>
+        <v>43487</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E536" t="n">
@@ -11633,15 +11633,15 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1002</t>
+          <t>Filling 6 Line F6L1020</t>
         </is>
       </c>
       <c r="C537" s="2" t="n">
-        <v>43473</v>
+        <v>43489</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E537" t="n">
@@ -11654,15 +11654,15 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1002</t>
+          <t>Filling 6 Line F6L1020</t>
         </is>
       </c>
       <c r="C538" s="2" t="n">
-        <v>43479</v>
+        <v>43504</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E538" t="n">
@@ -11675,15 +11675,15 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1002</t>
+          <t>Filling 6 Line F6L1020</t>
         </is>
       </c>
       <c r="C539" s="2" t="n">
-        <v>43490</v>
+        <v>43515</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
         </is>
       </c>
       <c r="E539" t="n">
@@ -11696,15 +11696,15 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1002</t>
+          <t>Filling 6 Line F6L1020</t>
         </is>
       </c>
       <c r="C540" s="2" t="n">
-        <v>43496</v>
+        <v>43517</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E540" t="n">
@@ -11717,11 +11717,11 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1002</t>
+          <t>Filling 6 Line F6L1020</t>
         </is>
       </c>
       <c r="C541" s="2" t="n">
-        <v>43516</v>
+        <v>43524</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -11738,11 +11738,11 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1002</t>
+          <t>Filling 6 Line F6L1020</t>
         </is>
       </c>
       <c r="C542" s="2" t="n">
-        <v>43516</v>
+        <v>43553</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -11759,15 +11759,15 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1002</t>
+          <t>Filling 6 Line F6L1020</t>
         </is>
       </c>
       <c r="C543" s="2" t="n">
-        <v>43521</v>
+        <v>43557</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Inspeksi</t>
         </is>
       </c>
       <c r="E543" t="n">
@@ -11780,15 +11780,15 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1002</t>
+          <t>Filling 6 Line F6L1020</t>
         </is>
       </c>
       <c r="C544" s="2" t="n">
-        <v>43522</v>
+        <v>43565</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E544" t="n">
@@ -11801,11 +11801,11 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1002</t>
+          <t>Filling 6 Line F6L1020</t>
         </is>
       </c>
       <c r="C545" s="2" t="n">
-        <v>43523</v>
+        <v>43608</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -11822,15 +11822,15 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1002</t>
+          <t>Filling Bag FLB1001</t>
         </is>
       </c>
       <c r="C546" s="2" t="n">
-        <v>43525</v>
+        <v>43397</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E546" t="n">
@@ -11843,15 +11843,15 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1002</t>
+          <t>Filling Bag FLB1001</t>
         </is>
       </c>
       <c r="C547" s="2" t="n">
-        <v>43543</v>
+        <v>43507</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E547" t="n">
@@ -11864,15 +11864,15 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1002</t>
+          <t>Filling Bag FLB1001</t>
         </is>
       </c>
       <c r="C548" s="2" t="n">
-        <v>43549</v>
+        <v>43507</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E548" t="n">
@@ -11885,15 +11885,15 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Filling Bag FLB1002</t>
+          <t>Filling Bag FLB1001</t>
         </is>
       </c>
       <c r="C549" s="2" t="n">
-        <v>43549</v>
+        <v>43515</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E549" t="n">
@@ -11910,7 +11910,7 @@
         </is>
       </c>
       <c r="C550" s="2" t="n">
-        <v>43549</v>
+        <v>43431</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -11931,11 +11931,11 @@
         </is>
       </c>
       <c r="C551" s="2" t="n">
-        <v>43556</v>
+        <v>43451</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E551" t="n">
@@ -11952,7 +11952,7 @@
         </is>
       </c>
       <c r="C552" s="2" t="n">
-        <v>43557</v>
+        <v>43473</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -11973,11 +11973,11 @@
         </is>
       </c>
       <c r="C553" s="2" t="n">
-        <v>43559</v>
+        <v>43479</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E553" t="n">
@@ -11994,11 +11994,11 @@
         </is>
       </c>
       <c r="C554" s="2" t="n">
-        <v>43563</v>
+        <v>43490</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E554" t="n">
@@ -12015,11 +12015,11 @@
         </is>
       </c>
       <c r="C555" s="2" t="n">
-        <v>43568</v>
+        <v>43496</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E555" t="n">
@@ -12036,11 +12036,11 @@
         </is>
       </c>
       <c r="C556" s="2" t="n">
-        <v>43581</v>
+        <v>43516</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E556" t="n">
@@ -12057,11 +12057,11 @@
         </is>
       </c>
       <c r="C557" s="2" t="n">
-        <v>43599</v>
+        <v>43516</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E557" t="n">
@@ -12078,11 +12078,11 @@
         </is>
       </c>
       <c r="C558" s="2" t="n">
-        <v>43600</v>
+        <v>43521</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E558" t="n">
@@ -12095,11 +12095,11 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Filling Botol FBT1003</t>
+          <t>Filling Bag FLB1002</t>
         </is>
       </c>
       <c r="C559" s="2" t="n">
-        <v>43494</v>
+        <v>43522</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -12116,15 +12116,15 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Filling Botol FBT1003</t>
+          <t>Filling Bag FLB1002</t>
         </is>
       </c>
       <c r="C560" s="2" t="n">
-        <v>43514</v>
+        <v>43523</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>Part tidak sesuai</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E560" t="n">
@@ -12137,15 +12137,15 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Filling Botol FBT1003</t>
+          <t>Filling Bag FLB1002</t>
         </is>
       </c>
       <c r="C561" s="2" t="n">
-        <v>43515</v>
+        <v>43525</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E561" t="n">
@@ -12158,15 +12158,15 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1001</t>
+          <t>Filling Bag FLB1002</t>
         </is>
       </c>
       <c r="C562" s="2" t="n">
-        <v>43377</v>
+        <v>43543</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E562" t="n">
@@ -12179,11 +12179,11 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1001</t>
+          <t>Filling Bag FLB1002</t>
         </is>
       </c>
       <c r="C563" s="2" t="n">
-        <v>43381</v>
+        <v>43549</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -12200,15 +12200,15 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1001</t>
+          <t>Filling Bag FLB1002</t>
         </is>
       </c>
       <c r="C564" s="2" t="n">
-        <v>43382</v>
+        <v>43549</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E564" t="n">
@@ -12221,15 +12221,15 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1001</t>
+          <t>Filling Bag FLB1002</t>
         </is>
       </c>
       <c r="C565" s="2" t="n">
-        <v>43383</v>
+        <v>43549</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E565" t="n">
@@ -12242,15 +12242,15 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1001</t>
+          <t>Filling Bag FLB1002</t>
         </is>
       </c>
       <c r="C566" s="2" t="n">
-        <v>43402</v>
+        <v>43556</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E566" t="n">
@@ -12263,15 +12263,15 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1001</t>
+          <t>Filling Bag FLB1002</t>
         </is>
       </c>
       <c r="C567" s="2" t="n">
-        <v>43404</v>
+        <v>43557</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>Kurang lubrikasi</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E567" t="n">
@@ -12284,15 +12284,15 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1001</t>
+          <t>Filling Bag FLB1002</t>
         </is>
       </c>
       <c r="C568" s="2" t="n">
-        <v>43406</v>
+        <v>43559</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E568" t="n">
@@ -12305,11 +12305,11 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1001</t>
+          <t>Filling Bag FLB1002</t>
         </is>
       </c>
       <c r="C569" s="2" t="n">
-        <v>43407</v>
+        <v>43563</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -12326,15 +12326,15 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1001</t>
+          <t>Filling Bag FLB1002</t>
         </is>
       </c>
       <c r="C570" s="2" t="n">
-        <v>43408</v>
+        <v>43568</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E570" t="n">
@@ -12347,15 +12347,15 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1001</t>
+          <t>Filling Bag FLB1002</t>
         </is>
       </c>
       <c r="C571" s="2" t="n">
-        <v>43409</v>
+        <v>43581</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E571" t="n">
@@ -12368,11 +12368,11 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1001</t>
+          <t>Filling Bag FLB1002</t>
         </is>
       </c>
       <c r="C572" s="2" t="n">
-        <v>43410</v>
+        <v>43599</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -12389,15 +12389,15 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1001</t>
+          <t>Filling Bag FLB1002</t>
         </is>
       </c>
       <c r="C573" s="2" t="n">
-        <v>43410</v>
+        <v>43600</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E573" t="n">
@@ -12410,15 +12410,15 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1001</t>
+          <t>Filling Botol FBT1003</t>
         </is>
       </c>
       <c r="C574" s="2" t="n">
-        <v>43411</v>
+        <v>43494</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E574" t="n">
@@ -12431,15 +12431,15 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1001</t>
+          <t>Filling Botol FBT1003</t>
         </is>
       </c>
       <c r="C575" s="2" t="n">
-        <v>43412</v>
+        <v>43514</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part tidak sesuai</t>
         </is>
       </c>
       <c r="E575" t="n">
@@ -12452,15 +12452,15 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1001</t>
+          <t>Filling Botol FBT1003</t>
         </is>
       </c>
       <c r="C576" s="2" t="n">
-        <v>43413</v>
+        <v>43515</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E576" t="n">
@@ -12477,11 +12477,11 @@
         </is>
       </c>
       <c r="C577" s="2" t="n">
-        <v>43416</v>
+        <v>43377</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E577" t="n">
@@ -12498,11 +12498,11 @@
         </is>
       </c>
       <c r="C578" s="2" t="n">
-        <v>43417</v>
+        <v>43381</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E578" t="n">
@@ -12519,11 +12519,11 @@
         </is>
       </c>
       <c r="C579" s="2" t="n">
-        <v>43417</v>
+        <v>43382</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E579" t="n">
@@ -12540,7 +12540,7 @@
         </is>
       </c>
       <c r="C580" s="2" t="n">
-        <v>43417</v>
+        <v>43383</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -12561,11 +12561,11 @@
         </is>
       </c>
       <c r="C581" s="2" t="n">
-        <v>43417</v>
+        <v>43402</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E581" t="n">
@@ -12582,11 +12582,11 @@
         </is>
       </c>
       <c r="C582" s="2" t="n">
-        <v>43418</v>
+        <v>43404</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E582" t="n">
@@ -12603,11 +12603,11 @@
         </is>
       </c>
       <c r="C583" s="2" t="n">
-        <v>43418</v>
+        <v>43406</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E583" t="n">
@@ -12624,11 +12624,11 @@
         </is>
       </c>
       <c r="C584" s="2" t="n">
-        <v>43430</v>
+        <v>43407</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>Misalignment</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E584" t="n">
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="C585" s="2" t="n">
-        <v>43432</v>
+        <v>43408</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -12666,11 +12666,11 @@
         </is>
       </c>
       <c r="C586" s="2" t="n">
-        <v>43439</v>
+        <v>43409</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E586" t="n">
@@ -12687,11 +12687,11 @@
         </is>
       </c>
       <c r="C587" s="2" t="n">
-        <v>43445</v>
+        <v>43410</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E587" t="n">
@@ -12708,11 +12708,11 @@
         </is>
       </c>
       <c r="C588" s="2" t="n">
-        <v>43446</v>
+        <v>43410</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E588" t="n">
@@ -12729,11 +12729,11 @@
         </is>
       </c>
       <c r="C589" s="2" t="n">
-        <v>43447</v>
+        <v>43411</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>Temperatur/tekanan tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E589" t="n">
@@ -12750,11 +12750,11 @@
         </is>
       </c>
       <c r="C590" s="2" t="n">
-        <v>43469</v>
+        <v>43412</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E590" t="n">
@@ -12771,11 +12771,11 @@
         </is>
       </c>
       <c r="C591" s="2" t="n">
-        <v>43470</v>
+        <v>43413</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E591" t="n">
@@ -12792,11 +12792,11 @@
         </is>
       </c>
       <c r="C592" s="2" t="n">
-        <v>43470</v>
+        <v>43416</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E592" t="n">
@@ -12813,11 +12813,11 @@
         </is>
       </c>
       <c r="C593" s="2" t="n">
-        <v>43472</v>
+        <v>43417</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E593" t="n">
@@ -12834,11 +12834,11 @@
         </is>
       </c>
       <c r="C594" s="2" t="n">
-        <v>43472</v>
+        <v>43417</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>Part hilang</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E594" t="n">
@@ -12855,11 +12855,11 @@
         </is>
       </c>
       <c r="C595" s="2" t="n">
-        <v>43481</v>
+        <v>43417</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>Kurang lubrikasi</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E595" t="n">
@@ -12876,11 +12876,11 @@
         </is>
       </c>
       <c r="C596" s="2" t="n">
-        <v>43488</v>
+        <v>43417</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E596" t="n">
@@ -12897,11 +12897,11 @@
         </is>
       </c>
       <c r="C597" s="2" t="n">
-        <v>43493</v>
+        <v>43418</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
         </is>
       </c>
       <c r="E597" t="n">
@@ -12918,11 +12918,11 @@
         </is>
       </c>
       <c r="C598" s="2" t="n">
-        <v>43496</v>
+        <v>43418</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E598" t="n">
@@ -12939,11 +12939,11 @@
         </is>
       </c>
       <c r="C599" s="2" t="n">
-        <v>43496</v>
+        <v>43430</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>Kabel tidak terlindungi</t>
+          <t>Misalignment</t>
         </is>
       </c>
       <c r="E599" t="n">
@@ -12960,11 +12960,11 @@
         </is>
       </c>
       <c r="C600" s="2" t="n">
-        <v>43502</v>
+        <v>43432</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>Kabel tidak terlindungi</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E600" t="n">
@@ -12981,7 +12981,7 @@
         </is>
       </c>
       <c r="C601" s="2" t="n">
-        <v>43502</v>
+        <v>43439</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -13002,11 +13002,11 @@
         </is>
       </c>
       <c r="C602" s="2" t="n">
-        <v>43503</v>
+        <v>43445</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E602" t="n">
@@ -13023,11 +13023,11 @@
         </is>
       </c>
       <c r="C603" s="2" t="n">
-        <v>43507</v>
+        <v>43446</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E603" t="n">
@@ -13044,11 +13044,11 @@
         </is>
       </c>
       <c r="C604" s="2" t="n">
-        <v>43508</v>
+        <v>43447</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Temperatur/tekanan tidak normal</t>
         </is>
       </c>
       <c r="E604" t="n">
@@ -13065,7 +13065,7 @@
         </is>
       </c>
       <c r="C605" s="2" t="n">
-        <v>43510</v>
+        <v>43469</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -13086,11 +13086,11 @@
         </is>
       </c>
       <c r="C606" s="2" t="n">
-        <v>43514</v>
+        <v>43470</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E606" t="n">
@@ -13107,11 +13107,11 @@
         </is>
       </c>
       <c r="C607" s="2" t="n">
-        <v>43515</v>
+        <v>43470</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E607" t="n">
@@ -13128,7 +13128,7 @@
         </is>
       </c>
       <c r="C608" s="2" t="n">
-        <v>43515</v>
+        <v>43472</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -13149,11 +13149,11 @@
         </is>
       </c>
       <c r="C609" s="2" t="n">
-        <v>43516</v>
+        <v>43472</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Part hilang</t>
         </is>
       </c>
       <c r="E609" t="n">
@@ -13170,11 +13170,11 @@
         </is>
       </c>
       <c r="C610" s="2" t="n">
-        <v>43517</v>
+        <v>43481</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Kurang lubrikasi</t>
         </is>
       </c>
       <c r="E610" t="n">
@@ -13191,7 +13191,7 @@
         </is>
       </c>
       <c r="C611" s="2" t="n">
-        <v>43521</v>
+        <v>43488</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -13212,11 +13212,11 @@
         </is>
       </c>
       <c r="C612" s="2" t="n">
-        <v>43522</v>
+        <v>43493</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E612" t="n">
@@ -13233,7 +13233,7 @@
         </is>
       </c>
       <c r="C613" s="2" t="n">
-        <v>43522</v>
+        <v>43496</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -13254,11 +13254,11 @@
         </is>
       </c>
       <c r="C614" s="2" t="n">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Kabel tidak terlindungi</t>
         </is>
       </c>
       <c r="E614" t="n">
@@ -13275,11 +13275,11 @@
         </is>
       </c>
       <c r="C615" s="2" t="n">
-        <v>43525</v>
+        <v>43502</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Kabel tidak terlindungi</t>
         </is>
       </c>
       <c r="E615" t="n">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="C616" s="2" t="n">
-        <v>43529</v>
+        <v>43502</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -13317,11 +13317,11 @@
         </is>
       </c>
       <c r="C617" s="2" t="n">
-        <v>43530</v>
+        <v>43503</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E617" t="n">
@@ -13338,11 +13338,11 @@
         </is>
       </c>
       <c r="C618" s="2" t="n">
-        <v>43532</v>
+        <v>43507</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E618" t="n">
@@ -13359,11 +13359,11 @@
         </is>
       </c>
       <c r="C619" s="2" t="n">
-        <v>43532</v>
+        <v>43508</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>Part rusak</t>
+          <t>Pengoperasian tidak normal</t>
         </is>
       </c>
       <c r="E619" t="n">
@@ -13380,7 +13380,7 @@
         </is>
       </c>
       <c r="C620" s="2" t="n">
-        <v>43537</v>
+        <v>43510</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         </is>
       </c>
       <c r="C621" s="2" t="n">
-        <v>43543</v>
+        <v>43514</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -13422,11 +13422,11 @@
         </is>
       </c>
       <c r="C622" s="2" t="n">
-        <v>43544</v>
+        <v>43515</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part kotor</t>
         </is>
       </c>
       <c r="E622" t="n">
@@ -13443,11 +13443,11 @@
         </is>
       </c>
       <c r="C623" s="2" t="n">
-        <v>43549</v>
+        <v>43515</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>Part kotor</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E623" t="n">
@@ -13464,7 +13464,7 @@
         </is>
       </c>
       <c r="C624" s="2" t="n">
-        <v>43551</v>
+        <v>43516</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -13485,11 +13485,11 @@
         </is>
       </c>
       <c r="C625" s="2" t="n">
-        <v>43552</v>
+        <v>43517</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E625" t="n">
@@ -13506,11 +13506,11 @@
         </is>
       </c>
       <c r="C626" s="2" t="n">
-        <v>43556</v>
+        <v>43521</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E626" t="n">
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="C627" s="2" t="n">
-        <v>43568</v>
+        <v>43522</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         </is>
       </c>
       <c r="C628" s="2" t="n">
-        <v>43588</v>
+        <v>43522</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -13569,11 +13569,11 @@
         </is>
       </c>
       <c r="C629" s="2" t="n">
-        <v>43601</v>
+        <v>43524</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>Pengoperasian tidak normal</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E629" t="n">
@@ -13586,15 +13586,15 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1002</t>
+          <t>Filling Stickpack FST1001</t>
         </is>
       </c>
       <c r="C630" s="2" t="n">
-        <v>43439</v>
+        <v>43525</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E630" t="n">
@@ -13607,15 +13607,15 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1002</t>
+          <t>Filling Stickpack FST1001</t>
         </is>
       </c>
       <c r="C631" s="2" t="n">
-        <v>43440</v>
+        <v>43529</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
+          <t>Part rusak</t>
         </is>
       </c>
       <c r="E631" t="n">
@@ -13628,11 +13628,11 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Filling Stickpack FST1002</t>
+          <t>Filling Stickpack FST1001</t>
         </is>
       </c>
       <c r="C632" s="2" t="n">
-        <v>43444</v>
+        <v>43530</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -13649,18 +13649,354 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
+          <t>Filling Stickpack FST1001</t>
+        </is>
+      </c>
+      <c r="C633" s="2" t="n">
+        <v>43532</v>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>Part rusak</t>
+        </is>
+      </c>
+      <c r="E633" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Filling Stickpack FST1001</t>
+        </is>
+      </c>
+      <c r="C634" s="2" t="n">
+        <v>43532</v>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>Part rusak</t>
+        </is>
+      </c>
+      <c r="E634" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Filling Stickpack FST1001</t>
+        </is>
+      </c>
+      <c r="C635" s="2" t="n">
+        <v>43537</v>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>Part rusak</t>
+        </is>
+      </c>
+      <c r="E635" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Filling Stickpack FST1001</t>
+        </is>
+      </c>
+      <c r="C636" s="2" t="n">
+        <v>43543</v>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>Part kotor</t>
+        </is>
+      </c>
+      <c r="E636" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Filling Stickpack FST1001</t>
+        </is>
+      </c>
+      <c r="C637" s="2" t="n">
+        <v>43544</v>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>Pengoperasian tidak normal</t>
+        </is>
+      </c>
+      <c r="E637" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Filling Stickpack FST1001</t>
+        </is>
+      </c>
+      <c r="C638" s="2" t="n">
+        <v>43549</v>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>Part kotor</t>
+        </is>
+      </c>
+      <c r="E638" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Filling Stickpack FST1001</t>
+        </is>
+      </c>
+      <c r="C639" s="2" t="n">
+        <v>43551</v>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>Part rusak</t>
+        </is>
+      </c>
+      <c r="E639" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Filling Stickpack FST1001</t>
+        </is>
+      </c>
+      <c r="C640" s="2" t="n">
+        <v>43552</v>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>Pengoperasian tidak normal</t>
+        </is>
+      </c>
+      <c r="E640" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Filling Stickpack FST1001</t>
+        </is>
+      </c>
+      <c r="C641" s="2" t="n">
+        <v>43556</v>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>Pengoperasian tidak normal</t>
+        </is>
+      </c>
+      <c r="E641" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Filling Stickpack FST1001</t>
+        </is>
+      </c>
+      <c r="C642" s="2" t="n">
+        <v>43568</v>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>Pengoperasian tidak normal</t>
+        </is>
+      </c>
+      <c r="E642" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Filling Stickpack FST1001</t>
+        </is>
+      </c>
+      <c r="C643" s="2" t="n">
+        <v>43588</v>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>Part rusak</t>
+        </is>
+      </c>
+      <c r="E643" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Filling Stickpack FST1001</t>
+        </is>
+      </c>
+      <c r="C644" s="2" t="n">
+        <v>43601</v>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>Pengoperasian tidak normal</t>
+        </is>
+      </c>
+      <c r="E644" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Filling Stickpack FST1001</t>
+        </is>
+      </c>
+      <c r="C645" s="2" t="n">
+        <v>43606</v>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>Part rusak</t>
+        </is>
+      </c>
+      <c r="E645" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
           <t>Filling Stickpack FST1002</t>
         </is>
       </c>
-      <c r="C633" s="2" t="n">
+      <c r="C646" s="2" t="n">
+        <v>43439</v>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
+        </is>
+      </c>
+      <c r="E646" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Filling Stickpack FST1002</t>
+        </is>
+      </c>
+      <c r="C647" s="2" t="n">
+        <v>43440</v>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>Suplai utility kurang/hilang (angin, air, steam, listrik)</t>
+        </is>
+      </c>
+      <c r="E647" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Filling Stickpack FST1002</t>
+        </is>
+      </c>
+      <c r="C648" s="2" t="n">
+        <v>43444</v>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>Part rusak</t>
+        </is>
+      </c>
+      <c r="E648" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Filling Stickpack FST1002</t>
+        </is>
+      </c>
+      <c r="C649" s="2" t="n">
         <v>43446</v>
       </c>
-      <c r="D633" t="inlineStr">
+      <c r="D649" t="inlineStr">
         <is>
           <t>Part hilang</t>
         </is>
       </c>
-      <c r="E633" t="n">
+      <c r="E649" t="n">
         <v>1</v>
       </c>
     </row>
